--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Patient Arrival" sheetId="4" r:id="rId4"/>
     <sheet name="Patient Transitions" sheetId="5" r:id="rId5"/>
     <sheet name="Model Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Expected State Values" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="41">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -97,12 +98,64 @@
     <t>Deviation (uniform)
 min/max (both inclusive)</t>
   </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Expected
+Value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>sc, m can be 0</t>
+  </si>
+  <si>
+    <t>rsc, m cant be 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +171,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,11 +254,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,8 +291,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -335,11 +501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124647616"/>
-        <c:axId val="124648192"/>
+        <c:axId val="157940480"/>
+        <c:axId val="157941056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124647616"/>
+        <c:axId val="157940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124648192"/>
+        <c:crossAx val="157941056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124648192"/>
+        <c:axId val="157941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -366,7 +532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124647616"/>
+        <c:crossAx val="157940480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -708,7 +874,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +905,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -776,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +996,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +1142,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1217,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -1098,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -1112,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -1126,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1140,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1210,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -1224,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -1238,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1252,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1266,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -1274,13 +1440,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1288,13 +1454,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1308,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -1322,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -1336,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,13 +1541,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,13 +1569,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -1434,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -1448,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -1462,31 +1628,87 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,7 +1763,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1781,16 @@
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1571,6 +1799,12 @@
       <c r="B2">
         <f>ROUNDUP(A2^'Indices Data'!B2,0)</f>
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0.95</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1713,4 +1947,4328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="21" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>20</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f>MAX(F3-C3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+      <c r="R3" s="20">
+        <v>1</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:I16" si="0">MAX(F4-C4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
+        <v>1</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22">
+        <v>10</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1</v>
+      </c>
+      <c r="R5" s="20">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>2</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>1</v>
+      </c>
+      <c r="R7" s="20">
+        <v>2</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>20</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>6</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>1</v>
+      </c>
+      <c r="R8" s="20">
+        <v>2</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+      <c r="R9" s="20">
+        <v>2</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>20</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>2</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>3</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
+      <c r="R11" s="20">
+        <v>3</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>3</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>1</v>
+      </c>
+      <c r="R12" s="20">
+        <v>3</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18">
+        <v>4</v>
+      </c>
+      <c r="C13" s="21">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>3</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>1</v>
+      </c>
+      <c r="R13" s="20">
+        <v>3</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21">
+        <v>20</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>3</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>1</v>
+      </c>
+      <c r="R14" s="20">
+        <v>3</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>4</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>1</v>
+      </c>
+      <c r="R15" s="20">
+        <v>4</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18">
+        <v>7</v>
+      </c>
+      <c r="C16" s="21">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>7</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>7</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>4</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1</v>
+      </c>
+      <c r="R16" s="20">
+        <v>4</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="M17" s="17">
+        <v>4</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>1</v>
+      </c>
+      <c r="R17" s="20">
+        <v>4</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="M18" s="17">
+        <v>4</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1</v>
+      </c>
+      <c r="R18" s="20">
+        <v>4</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="M19" s="17">
+        <v>5</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="20">
+        <v>5</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="M20" s="17">
+        <v>5</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>1</v>
+      </c>
+      <c r="R20" s="20">
+        <v>5</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="23"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="M21" s="17">
+        <v>5</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>1</v>
+      </c>
+      <c r="R21" s="20">
+        <v>5</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="M22" s="17">
+        <v>5</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>1</v>
+      </c>
+      <c r="R22" s="20">
+        <v>5</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="M23" s="17">
+        <v>6</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>1</v>
+      </c>
+      <c r="R23" s="20">
+        <v>6</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="M24" s="17">
+        <v>6</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>1</v>
+      </c>
+      <c r="R24" s="20">
+        <v>6</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="M25" s="17">
+        <v>6</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>1</v>
+      </c>
+      <c r="R25" s="20">
+        <v>6</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="M26" s="17">
+        <v>6</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>1</v>
+      </c>
+      <c r="R26" s="20">
+        <v>6</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="M27" s="17">
+        <v>7</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>1</v>
+      </c>
+      <c r="R27" s="20">
+        <v>7</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="M28" s="17">
+        <v>7</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+      <c r="R28" s="20">
+        <v>7</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="M29" s="17">
+        <v>7</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>1</v>
+      </c>
+      <c r="R29" s="20">
+        <v>7</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="M30" s="17">
+        <v>7</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>1</v>
+      </c>
+      <c r="R30" s="20">
+        <v>7</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="Q31" s="19">
+        <v>2</v>
+      </c>
+      <c r="R31" s="20">
+        <v>1</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="Q32" s="19">
+        <v>2</v>
+      </c>
+      <c r="R32" s="20">
+        <v>1</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="Q33" s="19">
+        <v>2</v>
+      </c>
+      <c r="R33" s="20">
+        <v>1</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="Q34" s="19">
+        <v>2</v>
+      </c>
+      <c r="R34" s="20">
+        <v>1</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="Q35" s="19">
+        <v>2</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+      <c r="Q36" s="19">
+        <v>2</v>
+      </c>
+      <c r="R36" s="20">
+        <v>2</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F37" s="6"/>
+      <c r="G37" s="4"/>
+      <c r="Q37" s="19">
+        <v>2</v>
+      </c>
+      <c r="R37" s="20">
+        <v>2</v>
+      </c>
+      <c r="S37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U37" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
+      <c r="Q38" s="19">
+        <v>2</v>
+      </c>
+      <c r="R38" s="20">
+        <v>2</v>
+      </c>
+      <c r="S38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F39" s="6"/>
+      <c r="G39" s="4"/>
+      <c r="Q39" s="19">
+        <v>2</v>
+      </c>
+      <c r="R39" s="20">
+        <v>3</v>
+      </c>
+      <c r="S39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q40" s="19">
+        <v>2</v>
+      </c>
+      <c r="R40" s="20">
+        <v>3</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q41" s="19">
+        <v>2</v>
+      </c>
+      <c r="R41" s="20">
+        <v>3</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q42" s="19">
+        <v>2</v>
+      </c>
+      <c r="R42" s="20">
+        <v>3</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q43" s="19">
+        <v>2</v>
+      </c>
+      <c r="R43" s="20">
+        <v>4</v>
+      </c>
+      <c r="S43" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q44" s="19">
+        <v>2</v>
+      </c>
+      <c r="R44" s="20">
+        <v>4</v>
+      </c>
+      <c r="S44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q45" s="19">
+        <v>2</v>
+      </c>
+      <c r="R45" s="20">
+        <v>4</v>
+      </c>
+      <c r="S45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q46" s="19">
+        <v>2</v>
+      </c>
+      <c r="R46" s="20">
+        <v>4</v>
+      </c>
+      <c r="S46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q47" s="19">
+        <v>2</v>
+      </c>
+      <c r="R47" s="20">
+        <v>5</v>
+      </c>
+      <c r="S47" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="Q48" s="19">
+        <v>2</v>
+      </c>
+      <c r="R48" s="20">
+        <v>5</v>
+      </c>
+      <c r="S48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q49" s="19">
+        <v>2</v>
+      </c>
+      <c r="R49" s="20">
+        <v>5</v>
+      </c>
+      <c r="S49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q50" s="19">
+        <v>2</v>
+      </c>
+      <c r="R50" s="20">
+        <v>5</v>
+      </c>
+      <c r="S50" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q51" s="19">
+        <v>2</v>
+      </c>
+      <c r="R51" s="20">
+        <v>6</v>
+      </c>
+      <c r="S51" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q52" s="19">
+        <v>2</v>
+      </c>
+      <c r="R52" s="20">
+        <v>6</v>
+      </c>
+      <c r="S52" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q53" s="19">
+        <v>2</v>
+      </c>
+      <c r="R53" s="20">
+        <v>6</v>
+      </c>
+      <c r="S53" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q54" s="19">
+        <v>2</v>
+      </c>
+      <c r="R54" s="20">
+        <v>6</v>
+      </c>
+      <c r="S54" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q55" s="19">
+        <v>2</v>
+      </c>
+      <c r="R55" s="20">
+        <v>7</v>
+      </c>
+      <c r="S55" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U55" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q56" s="19">
+        <v>2</v>
+      </c>
+      <c r="R56" s="20">
+        <v>7</v>
+      </c>
+      <c r="S56" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q57" s="19">
+        <v>2</v>
+      </c>
+      <c r="R57" s="20">
+        <v>7</v>
+      </c>
+      <c r="S57" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q58" s="19">
+        <v>2</v>
+      </c>
+      <c r="R58" s="20">
+        <v>7</v>
+      </c>
+      <c r="S58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U58" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q59" s="19">
+        <v>3</v>
+      </c>
+      <c r="R59" s="20">
+        <v>1</v>
+      </c>
+      <c r="S59" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q60" s="19">
+        <v>3</v>
+      </c>
+      <c r="R60" s="20">
+        <v>1</v>
+      </c>
+      <c r="S60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U60" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q61" s="19">
+        <v>3</v>
+      </c>
+      <c r="R61" s="20">
+        <v>1</v>
+      </c>
+      <c r="S61" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U61" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q62" s="19">
+        <v>3</v>
+      </c>
+      <c r="R62" s="20">
+        <v>1</v>
+      </c>
+      <c r="S62" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U62" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q63" s="19">
+        <v>3</v>
+      </c>
+      <c r="R63" s="20">
+        <v>2</v>
+      </c>
+      <c r="S63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U63" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q64" s="19">
+        <v>3</v>
+      </c>
+      <c r="R64" s="20">
+        <v>2</v>
+      </c>
+      <c r="S64" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U64" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q65" s="19">
+        <v>3</v>
+      </c>
+      <c r="R65" s="20">
+        <v>2</v>
+      </c>
+      <c r="S65" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T65" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q66" s="19">
+        <v>3</v>
+      </c>
+      <c r="R66" s="20">
+        <v>2</v>
+      </c>
+      <c r="S66" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U66" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q67" s="19">
+        <v>3</v>
+      </c>
+      <c r="R67" s="20">
+        <v>3</v>
+      </c>
+      <c r="S67" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T67" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q68" s="19">
+        <v>3</v>
+      </c>
+      <c r="R68" s="20">
+        <v>3</v>
+      </c>
+      <c r="S68" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T68" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U68" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q69" s="19">
+        <v>3</v>
+      </c>
+      <c r="R69" s="20">
+        <v>3</v>
+      </c>
+      <c r="S69" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T69" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q70" s="19">
+        <v>3</v>
+      </c>
+      <c r="R70" s="20">
+        <v>3</v>
+      </c>
+      <c r="S70" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T70" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U70" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q71" s="19">
+        <v>3</v>
+      </c>
+      <c r="R71" s="20">
+        <v>4</v>
+      </c>
+      <c r="S71" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T71" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q72" s="19">
+        <v>3</v>
+      </c>
+      <c r="R72" s="20">
+        <v>4</v>
+      </c>
+      <c r="S72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q73" s="19">
+        <v>3</v>
+      </c>
+      <c r="R73" s="20">
+        <v>4</v>
+      </c>
+      <c r="S73" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q74" s="19">
+        <v>3</v>
+      </c>
+      <c r="R74" s="20">
+        <v>4</v>
+      </c>
+      <c r="S74" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U74" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q75" s="19">
+        <v>3</v>
+      </c>
+      <c r="R75" s="20">
+        <v>5</v>
+      </c>
+      <c r="S75" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U75" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q76" s="19">
+        <v>3</v>
+      </c>
+      <c r="R76" s="20">
+        <v>5</v>
+      </c>
+      <c r="S76" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q77" s="19">
+        <v>3</v>
+      </c>
+      <c r="R77" s="20">
+        <v>5</v>
+      </c>
+      <c r="S77" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T77" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U77" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q78" s="19">
+        <v>3</v>
+      </c>
+      <c r="R78" s="20">
+        <v>5</v>
+      </c>
+      <c r="S78" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q79" s="19">
+        <v>3</v>
+      </c>
+      <c r="R79" s="20">
+        <v>6</v>
+      </c>
+      <c r="S79" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T79" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U79" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q80" s="19">
+        <v>3</v>
+      </c>
+      <c r="R80" s="20">
+        <v>6</v>
+      </c>
+      <c r="S80" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q81" s="19">
+        <v>3</v>
+      </c>
+      <c r="R81" s="20">
+        <v>6</v>
+      </c>
+      <c r="S81" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q82" s="19">
+        <v>3</v>
+      </c>
+      <c r="R82" s="20">
+        <v>6</v>
+      </c>
+      <c r="S82" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q83" s="19">
+        <v>3</v>
+      </c>
+      <c r="R83" s="20">
+        <v>7</v>
+      </c>
+      <c r="S83" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q84" s="19">
+        <v>3</v>
+      </c>
+      <c r="R84" s="20">
+        <v>7</v>
+      </c>
+      <c r="S84" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q85" s="19">
+        <v>3</v>
+      </c>
+      <c r="R85" s="20">
+        <v>7</v>
+      </c>
+      <c r="S85" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T85" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U85" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q86" s="19">
+        <v>3</v>
+      </c>
+      <c r="R86" s="20">
+        <v>7</v>
+      </c>
+      <c r="S86" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U86" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q87" s="19">
+        <v>4</v>
+      </c>
+      <c r="R87" s="20">
+        <v>1</v>
+      </c>
+      <c r="S87" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T87" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U87" s="22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q88" s="19">
+        <v>4</v>
+      </c>
+      <c r="R88" s="20">
+        <v>1</v>
+      </c>
+      <c r="S88" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U88" s="22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q89" s="19">
+        <v>4</v>
+      </c>
+      <c r="R89" s="20">
+        <v>1</v>
+      </c>
+      <c r="S89" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q90" s="19">
+        <v>4</v>
+      </c>
+      <c r="R90" s="20">
+        <v>1</v>
+      </c>
+      <c r="S90" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U90" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q91" s="19">
+        <v>4</v>
+      </c>
+      <c r="R91" s="20">
+        <v>2</v>
+      </c>
+      <c r="S91" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q92" s="19">
+        <v>4</v>
+      </c>
+      <c r="R92" s="20">
+        <v>2</v>
+      </c>
+      <c r="S92" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T92" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q93" s="19">
+        <v>4</v>
+      </c>
+      <c r="R93" s="20">
+        <v>2</v>
+      </c>
+      <c r="S93" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T93" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q94" s="19">
+        <v>4</v>
+      </c>
+      <c r="R94" s="20">
+        <v>2</v>
+      </c>
+      <c r="S94" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q95" s="19">
+        <v>4</v>
+      </c>
+      <c r="R95" s="20">
+        <v>3</v>
+      </c>
+      <c r="S95" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T95" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q96" s="19">
+        <v>4</v>
+      </c>
+      <c r="R96" s="20">
+        <v>3</v>
+      </c>
+      <c r="S96" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T96" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q97" s="19">
+        <v>4</v>
+      </c>
+      <c r="R97" s="20">
+        <v>3</v>
+      </c>
+      <c r="S97" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T97" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q98" s="19">
+        <v>4</v>
+      </c>
+      <c r="R98" s="20">
+        <v>3</v>
+      </c>
+      <c r="S98" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T98" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q99" s="19">
+        <v>4</v>
+      </c>
+      <c r="R99" s="20">
+        <v>4</v>
+      </c>
+      <c r="S99" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T99" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q100" s="19">
+        <v>4</v>
+      </c>
+      <c r="R100" s="20">
+        <v>4</v>
+      </c>
+      <c r="S100" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q101" s="19">
+        <v>4</v>
+      </c>
+      <c r="R101" s="20">
+        <v>4</v>
+      </c>
+      <c r="S101" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q102" s="19">
+        <v>4</v>
+      </c>
+      <c r="R102" s="20">
+        <v>4</v>
+      </c>
+      <c r="S102" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U102" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q103" s="19">
+        <v>4</v>
+      </c>
+      <c r="R103" s="20">
+        <v>5</v>
+      </c>
+      <c r="S103" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T103" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U103" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q104" s="19">
+        <v>4</v>
+      </c>
+      <c r="R104" s="20">
+        <v>5</v>
+      </c>
+      <c r="S104" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T104" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U104" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q105" s="19">
+        <v>4</v>
+      </c>
+      <c r="R105" s="20">
+        <v>5</v>
+      </c>
+      <c r="S105" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T105" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U105" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q106" s="19">
+        <v>4</v>
+      </c>
+      <c r="R106" s="20">
+        <v>5</v>
+      </c>
+      <c r="S106" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T106" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U106" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q107" s="19">
+        <v>4</v>
+      </c>
+      <c r="R107" s="20">
+        <v>6</v>
+      </c>
+      <c r="S107" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T107" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U107" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q108" s="19">
+        <v>4</v>
+      </c>
+      <c r="R108" s="20">
+        <v>6</v>
+      </c>
+      <c r="S108" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T108" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U108" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q109" s="19">
+        <v>4</v>
+      </c>
+      <c r="R109" s="20">
+        <v>6</v>
+      </c>
+      <c r="S109" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T109" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U109" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q110" s="19">
+        <v>4</v>
+      </c>
+      <c r="R110" s="20">
+        <v>6</v>
+      </c>
+      <c r="S110" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T110" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U110" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q111" s="19">
+        <v>4</v>
+      </c>
+      <c r="R111" s="20">
+        <v>7</v>
+      </c>
+      <c r="S111" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U111" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q112" s="19">
+        <v>4</v>
+      </c>
+      <c r="R112" s="20">
+        <v>7</v>
+      </c>
+      <c r="S112" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T112" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q113" s="19">
+        <v>4</v>
+      </c>
+      <c r="R113" s="20">
+        <v>7</v>
+      </c>
+      <c r="S113" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T113" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U113" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q114" s="19">
+        <v>4</v>
+      </c>
+      <c r="R114" s="20">
+        <v>7</v>
+      </c>
+      <c r="S114" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T114" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q115" s="19">
+        <v>5</v>
+      </c>
+      <c r="R115" s="20">
+        <v>1</v>
+      </c>
+      <c r="S115" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T115" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U115" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q116" s="19">
+        <v>5</v>
+      </c>
+      <c r="R116" s="20">
+        <v>1</v>
+      </c>
+      <c r="S116" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T116" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U116" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q117" s="19">
+        <v>5</v>
+      </c>
+      <c r="R117" s="20">
+        <v>1</v>
+      </c>
+      <c r="S117" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T117" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U117" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q118" s="19">
+        <v>5</v>
+      </c>
+      <c r="R118" s="20">
+        <v>1</v>
+      </c>
+      <c r="S118" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T118" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U118" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q119" s="19">
+        <v>5</v>
+      </c>
+      <c r="R119" s="20">
+        <v>2</v>
+      </c>
+      <c r="S119" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T119" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q120" s="19">
+        <v>5</v>
+      </c>
+      <c r="R120" s="20">
+        <v>2</v>
+      </c>
+      <c r="S120" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T120" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q121" s="19">
+        <v>5</v>
+      </c>
+      <c r="R121" s="20">
+        <v>2</v>
+      </c>
+      <c r="S121" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T121" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q122" s="19">
+        <v>5</v>
+      </c>
+      <c r="R122" s="20">
+        <v>2</v>
+      </c>
+      <c r="S122" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T122" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q123" s="19">
+        <v>5</v>
+      </c>
+      <c r="R123" s="20">
+        <v>3</v>
+      </c>
+      <c r="S123" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T123" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q124" s="19">
+        <v>5</v>
+      </c>
+      <c r="R124" s="20">
+        <v>3</v>
+      </c>
+      <c r="S124" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T124" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q125" s="19">
+        <v>5</v>
+      </c>
+      <c r="R125" s="20">
+        <v>3</v>
+      </c>
+      <c r="S125" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T125" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q126" s="19">
+        <v>5</v>
+      </c>
+      <c r="R126" s="20">
+        <v>3</v>
+      </c>
+      <c r="S126" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T126" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U126" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q127" s="19">
+        <v>5</v>
+      </c>
+      <c r="R127" s="20">
+        <v>4</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T127" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q128" s="19">
+        <v>5</v>
+      </c>
+      <c r="R128" s="20">
+        <v>4</v>
+      </c>
+      <c r="S128" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T128" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U128" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q129" s="19">
+        <v>5</v>
+      </c>
+      <c r="R129" s="20">
+        <v>4</v>
+      </c>
+      <c r="S129" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T129" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q130" s="19">
+        <v>5</v>
+      </c>
+      <c r="R130" s="20">
+        <v>4</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T130" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U130" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q131" s="19">
+        <v>5</v>
+      </c>
+      <c r="R131" s="20">
+        <v>5</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T131" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U131" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q132" s="19">
+        <v>5</v>
+      </c>
+      <c r="R132" s="20">
+        <v>5</v>
+      </c>
+      <c r="S132" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T132" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U132" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q133" s="19">
+        <v>5</v>
+      </c>
+      <c r="R133" s="20">
+        <v>5</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T133" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U133" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q134" s="19">
+        <v>5</v>
+      </c>
+      <c r="R134" s="20">
+        <v>5</v>
+      </c>
+      <c r="S134" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T134" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U134" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q135" s="19">
+        <v>5</v>
+      </c>
+      <c r="R135" s="20">
+        <v>6</v>
+      </c>
+      <c r="S135" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T135" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U135" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q136" s="19">
+        <v>5</v>
+      </c>
+      <c r="R136" s="20">
+        <v>6</v>
+      </c>
+      <c r="S136" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T136" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U136" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q137" s="19">
+        <v>5</v>
+      </c>
+      <c r="R137" s="20">
+        <v>6</v>
+      </c>
+      <c r="S137" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T137" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U137" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q138" s="19">
+        <v>5</v>
+      </c>
+      <c r="R138" s="20">
+        <v>6</v>
+      </c>
+      <c r="S138" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T138" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U138" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q139" s="19">
+        <v>5</v>
+      </c>
+      <c r="R139" s="20">
+        <v>7</v>
+      </c>
+      <c r="S139" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T139" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U139" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q140" s="19">
+        <v>5</v>
+      </c>
+      <c r="R140" s="20">
+        <v>7</v>
+      </c>
+      <c r="S140" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T140" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U140" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q141" s="19">
+        <v>5</v>
+      </c>
+      <c r="R141" s="20">
+        <v>7</v>
+      </c>
+      <c r="S141" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T141" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U141" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q142" s="19">
+        <v>5</v>
+      </c>
+      <c r="R142" s="20">
+        <v>7</v>
+      </c>
+      <c r="S142" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T142" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U142" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q143" s="19">
+        <v>6</v>
+      </c>
+      <c r="R143" s="20">
+        <v>1</v>
+      </c>
+      <c r="S143" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T143" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U143" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q144" s="19">
+        <v>6</v>
+      </c>
+      <c r="R144" s="20">
+        <v>1</v>
+      </c>
+      <c r="S144" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T144" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U144" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q145" s="19">
+        <v>6</v>
+      </c>
+      <c r="R145" s="20">
+        <v>1</v>
+      </c>
+      <c r="S145" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T145" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U145" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q146" s="19">
+        <v>6</v>
+      </c>
+      <c r="R146" s="20">
+        <v>1</v>
+      </c>
+      <c r="S146" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T146" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U146" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q147" s="19">
+        <v>6</v>
+      </c>
+      <c r="R147" s="20">
+        <v>2</v>
+      </c>
+      <c r="S147" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T147" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U147" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q148" s="19">
+        <v>6</v>
+      </c>
+      <c r="R148" s="20">
+        <v>2</v>
+      </c>
+      <c r="S148" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T148" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U148" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q149" s="19">
+        <v>6</v>
+      </c>
+      <c r="R149" s="20">
+        <v>2</v>
+      </c>
+      <c r="S149" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T149" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U149" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q150" s="19">
+        <v>6</v>
+      </c>
+      <c r="R150" s="20">
+        <v>2</v>
+      </c>
+      <c r="S150" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T150" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U150" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q151" s="19">
+        <v>6</v>
+      </c>
+      <c r="R151" s="20">
+        <v>3</v>
+      </c>
+      <c r="S151" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T151" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U151" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q152" s="19">
+        <v>6</v>
+      </c>
+      <c r="R152" s="20">
+        <v>3</v>
+      </c>
+      <c r="S152" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T152" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U152" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q153" s="19">
+        <v>6</v>
+      </c>
+      <c r="R153" s="20">
+        <v>3</v>
+      </c>
+      <c r="S153" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T153" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U153" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q154" s="19">
+        <v>6</v>
+      </c>
+      <c r="R154" s="20">
+        <v>3</v>
+      </c>
+      <c r="S154" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T154" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U154" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q155" s="19">
+        <v>6</v>
+      </c>
+      <c r="R155" s="20">
+        <v>4</v>
+      </c>
+      <c r="S155" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T155" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U155" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q156" s="19">
+        <v>6</v>
+      </c>
+      <c r="R156" s="20">
+        <v>4</v>
+      </c>
+      <c r="S156" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T156" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U156" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q157" s="19">
+        <v>6</v>
+      </c>
+      <c r="R157" s="20">
+        <v>4</v>
+      </c>
+      <c r="S157" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T157" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U157" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q158" s="19">
+        <v>6</v>
+      </c>
+      <c r="R158" s="20">
+        <v>4</v>
+      </c>
+      <c r="S158" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T158" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U158" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q159" s="19">
+        <v>6</v>
+      </c>
+      <c r="R159" s="20">
+        <v>5</v>
+      </c>
+      <c r="S159" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T159" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U159" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q160" s="19">
+        <v>6</v>
+      </c>
+      <c r="R160" s="20">
+        <v>5</v>
+      </c>
+      <c r="S160" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T160" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U160" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q161" s="19">
+        <v>6</v>
+      </c>
+      <c r="R161" s="20">
+        <v>5</v>
+      </c>
+      <c r="S161" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T161" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U161" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q162" s="19">
+        <v>6</v>
+      </c>
+      <c r="R162" s="20">
+        <v>5</v>
+      </c>
+      <c r="S162" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T162" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U162" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q163" s="19">
+        <v>6</v>
+      </c>
+      <c r="R163" s="20">
+        <v>6</v>
+      </c>
+      <c r="S163" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T163" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U163" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q164" s="19">
+        <v>6</v>
+      </c>
+      <c r="R164" s="20">
+        <v>6</v>
+      </c>
+      <c r="S164" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T164" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U164" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q165" s="19">
+        <v>6</v>
+      </c>
+      <c r="R165" s="20">
+        <v>6</v>
+      </c>
+      <c r="S165" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T165" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U165" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q166" s="19">
+        <v>6</v>
+      </c>
+      <c r="R166" s="20">
+        <v>6</v>
+      </c>
+      <c r="S166" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T166" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U166" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q167" s="19">
+        <v>6</v>
+      </c>
+      <c r="R167" s="20">
+        <v>7</v>
+      </c>
+      <c r="S167" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T167" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U167" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q168" s="19">
+        <v>6</v>
+      </c>
+      <c r="R168" s="20">
+        <v>7</v>
+      </c>
+      <c r="S168" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T168" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U168" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q169" s="19">
+        <v>6</v>
+      </c>
+      <c r="R169" s="20">
+        <v>7</v>
+      </c>
+      <c r="S169" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T169" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U169" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q170" s="19">
+        <v>6</v>
+      </c>
+      <c r="R170" s="20">
+        <v>7</v>
+      </c>
+      <c r="S170" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T170" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U170" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q171" s="19">
+        <v>7</v>
+      </c>
+      <c r="R171" s="20">
+        <v>1</v>
+      </c>
+      <c r="S171" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T171" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U171" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q172" s="19">
+        <v>7</v>
+      </c>
+      <c r="R172" s="20">
+        <v>1</v>
+      </c>
+      <c r="S172" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T172" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U172" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q173" s="19">
+        <v>7</v>
+      </c>
+      <c r="R173" s="20">
+        <v>1</v>
+      </c>
+      <c r="S173" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T173" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U173" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q174" s="19">
+        <v>7</v>
+      </c>
+      <c r="R174" s="20">
+        <v>1</v>
+      </c>
+      <c r="S174" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T174" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U174" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q175" s="19">
+        <v>7</v>
+      </c>
+      <c r="R175" s="20">
+        <v>2</v>
+      </c>
+      <c r="S175" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T175" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U175" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q176" s="19">
+        <v>7</v>
+      </c>
+      <c r="R176" s="20">
+        <v>2</v>
+      </c>
+      <c r="S176" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T176" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U176" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q177" s="19">
+        <v>7</v>
+      </c>
+      <c r="R177" s="20">
+        <v>2</v>
+      </c>
+      <c r="S177" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T177" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U177" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q178" s="19">
+        <v>7</v>
+      </c>
+      <c r="R178" s="20">
+        <v>2</v>
+      </c>
+      <c r="S178" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T178" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U178" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q179" s="19">
+        <v>7</v>
+      </c>
+      <c r="R179" s="20">
+        <v>3</v>
+      </c>
+      <c r="S179" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T179" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U179" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q180" s="19">
+        <v>7</v>
+      </c>
+      <c r="R180" s="20">
+        <v>3</v>
+      </c>
+      <c r="S180" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T180" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U180" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q181" s="19">
+        <v>7</v>
+      </c>
+      <c r="R181" s="20">
+        <v>3</v>
+      </c>
+      <c r="S181" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T181" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U181" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q182" s="19">
+        <v>7</v>
+      </c>
+      <c r="R182" s="20">
+        <v>3</v>
+      </c>
+      <c r="S182" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T182" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U182" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q183" s="19">
+        <v>7</v>
+      </c>
+      <c r="R183" s="20">
+        <v>4</v>
+      </c>
+      <c r="S183" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T183" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U183" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q184" s="19">
+        <v>7</v>
+      </c>
+      <c r="R184" s="20">
+        <v>4</v>
+      </c>
+      <c r="S184" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T184" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U184" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q185" s="19">
+        <v>7</v>
+      </c>
+      <c r="R185" s="20">
+        <v>4</v>
+      </c>
+      <c r="S185" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T185" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U185" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q186" s="19">
+        <v>7</v>
+      </c>
+      <c r="R186" s="20">
+        <v>4</v>
+      </c>
+      <c r="S186" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T186" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U186" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q187" s="19">
+        <v>7</v>
+      </c>
+      <c r="R187" s="20">
+        <v>5</v>
+      </c>
+      <c r="S187" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T187" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U187" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q188" s="19">
+        <v>7</v>
+      </c>
+      <c r="R188" s="20">
+        <v>5</v>
+      </c>
+      <c r="S188" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T188" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U188" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q189" s="19">
+        <v>7</v>
+      </c>
+      <c r="R189" s="20">
+        <v>5</v>
+      </c>
+      <c r="S189" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T189" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U189" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q190" s="19">
+        <v>7</v>
+      </c>
+      <c r="R190" s="20">
+        <v>5</v>
+      </c>
+      <c r="S190" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T190" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U190" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q191" s="19">
+        <v>7</v>
+      </c>
+      <c r="R191" s="20">
+        <v>6</v>
+      </c>
+      <c r="S191" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T191" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U191" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q192" s="19">
+        <v>7</v>
+      </c>
+      <c r="R192" s="20">
+        <v>6</v>
+      </c>
+      <c r="S192" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T192" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U192" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q193" s="19">
+        <v>7</v>
+      </c>
+      <c r="R193" s="20">
+        <v>6</v>
+      </c>
+      <c r="S193" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T193" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U193" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q194" s="19">
+        <v>7</v>
+      </c>
+      <c r="R194" s="20">
+        <v>6</v>
+      </c>
+      <c r="S194" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T194" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U194" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q195" s="19">
+        <v>7</v>
+      </c>
+      <c r="R195" s="20">
+        <v>7</v>
+      </c>
+      <c r="S195" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T195" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U195" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q196" s="19">
+        <v>7</v>
+      </c>
+      <c r="R196" s="20">
+        <v>7</v>
+      </c>
+      <c r="S196" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T196" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U196" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q197" s="19">
+        <v>7</v>
+      </c>
+      <c r="R197" s="20">
+        <v>7</v>
+      </c>
+      <c r="S197" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T197" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U197" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q198" s="19">
+        <v>7</v>
+      </c>
+      <c r="R198" s="20">
+        <v>7</v>
+      </c>
+      <c r="S198" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T198" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U198" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="42">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Priority 1</t>
+  </si>
+  <si>
+    <t>Does resource carry over time?</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202921600"/>
-        <c:axId val="202922176"/>
+        <c:axId val="203879488"/>
+        <c:axId val="203880064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202921600"/>
+        <c:axId val="203879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202922176"/>
+        <c:crossAx val="203880064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202922176"/>
+        <c:axId val="203880064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -535,7 +538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202921600"/>
+        <c:crossAx val="203879488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -876,9 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -944,45 +945,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1251,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>$A$2^G2</f>
+        <f t="shared" ref="H2:H16" si="0">$A$2^G2</f>
         <v>1</v>
       </c>
     </row>
@@ -1579,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>$A$2^G3</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1588,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <f>$A$2^G4</f>
+        <f t="shared" si="0"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
@@ -1597,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <f>$A$2^G5</f>
+        <f t="shared" si="0"/>
         <v>1.3310000000000004</v>
       </c>
     </row>
@@ -1606,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <f>$A$2^G6</f>
+        <f t="shared" si="0"/>
         <v>1.4641000000000004</v>
       </c>
     </row>
@@ -1615,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <f>$A$2^G7</f>
+        <f t="shared" si="0"/>
         <v>1.6105100000000006</v>
       </c>
     </row>
@@ -1624,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <f>$A$2^G8</f>
+        <f t="shared" si="0"/>
         <v>1.7715610000000008</v>
       </c>
     </row>
@@ -1633,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <f>$A$2^G9</f>
+        <f t="shared" si="0"/>
         <v>1.9487171000000012</v>
       </c>
     </row>
@@ -1642,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <f>$A$2^G10</f>
+        <f t="shared" si="0"/>
         <v>2.1435888100000011</v>
       </c>
     </row>
@@ -1651,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <f>$A$2^G11</f>
+        <f t="shared" si="0"/>
         <v>2.3579476910000015</v>
       </c>
     </row>
@@ -1660,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <f>$A$2^G12</f>
+        <f t="shared" si="0"/>
         <v>2.5937424601000019</v>
       </c>
     </row>
@@ -1669,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <f>$A$2^G13</f>
+        <f t="shared" si="0"/>
         <v>2.8531167061100025</v>
       </c>
     </row>
@@ -1678,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f>$A$2^G14</f>
+        <f t="shared" si="0"/>
         <v>3.1384283767210026</v>
       </c>
     </row>
@@ -1687,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <f>$A$2^G15</f>
+        <f t="shared" si="0"/>
         <v>3.4522712143931029</v>
       </c>
     </row>
@@ -1696,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <f>$A$2^G16</f>
+        <f t="shared" si="0"/>
         <v>3.7974983358324139</v>
       </c>
     </row>
@@ -1713,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I16" si="0">MAX(F4-C4,0)</f>
+        <f t="shared" ref="I4:I9" si="0">MAX(F4-C4,0)</f>
         <v>0</v>
       </c>
       <c r="M4" s="15">
@@ -2421,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="18">
-        <f t="shared" ref="R13:U13" si="2">R3</f>
+        <f t="shared" ref="R13:T13" si="2">R3</f>
         <v>1</v>
       </c>
       <c r="S13" s="20" t="str">
@@ -2442,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="18">
-        <f t="shared" ref="R14:U14" si="4">R4</f>
+        <f t="shared" ref="R14:T14" si="4">R4</f>
         <v>2</v>
       </c>
       <c r="S14" s="20" t="str">
@@ -2463,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="18">
-        <f t="shared" ref="R15:U15" si="5">R5</f>
+        <f t="shared" ref="R15:T15" si="5">R5</f>
         <v>3</v>
       </c>
       <c r="S15" s="20" t="str">
@@ -2484,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="18">
-        <f t="shared" ref="R16:U16" si="6">R6</f>
+        <f t="shared" ref="R16:T16" si="6">R6</f>
         <v>4</v>
       </c>
       <c r="S16" s="20" t="str">
@@ -2507,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="18">
-        <f t="shared" ref="R17:U17" si="7">R7</f>
+        <f t="shared" ref="R17:T17" si="7">R7</f>
         <v>5</v>
       </c>
       <c r="S17" s="20" t="str">
@@ -2533,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="18">
-        <f t="shared" ref="R18:U18" si="8">R8</f>
+        <f t="shared" ref="R18:T18" si="8">R8</f>
         <v>6</v>
       </c>
       <c r="S18" s="20" t="str">
@@ -2562,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="18">
-        <f t="shared" ref="R19:U19" si="9">R9</f>
+        <f t="shared" ref="R19:T19" si="9">R9</f>
         <v>7</v>
       </c>
       <c r="S19" s="20" t="str">
@@ -2591,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="18">
-        <f t="shared" ref="R20:U20" si="10">R10</f>
+        <f t="shared" ref="R20:T20" si="10">R10</f>
         <v>8</v>
       </c>
       <c r="S20" s="20" t="str">
@@ -2617,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" ref="R21:U21" si="11">R11</f>
+        <f t="shared" ref="R21:T21" si="11">R11</f>
         <v>9</v>
       </c>
       <c r="S21" s="20" t="str">
@@ -2643,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="R22" s="18">
-        <f t="shared" ref="R22:U22" si="12">R12</f>
+        <f t="shared" ref="R22:T22" si="12">R12</f>
         <v>10</v>
       </c>
       <c r="S22" s="20" t="str">
@@ -2669,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" ref="R23:U23" si="13">R13</f>
+        <f t="shared" ref="R23:T23" si="13">R13</f>
         <v>1</v>
       </c>
       <c r="S23" s="20" t="str">
@@ -2694,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" ref="R24:U24" si="14">R14</f>
+        <f t="shared" ref="R24:T24" si="14">R14</f>
         <v>2</v>
       </c>
       <c r="S24" s="20" t="str">
@@ -2719,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" ref="R25:U25" si="15">R15</f>
+        <f t="shared" ref="R25:T25" si="15">R15</f>
         <v>3</v>
       </c>
       <c r="S25" s="20" t="str">
@@ -2744,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" ref="R26:U26" si="16">R16</f>
+        <f t="shared" ref="R26:T26" si="16">R16</f>
         <v>4</v>
       </c>
       <c r="S26" s="20" t="str">
@@ -2769,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" ref="R27:U27" si="17">R17</f>
+        <f t="shared" ref="R27:T27" si="17">R17</f>
         <v>5</v>
       </c>
       <c r="S27" s="20" t="str">
@@ -2794,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="R28" s="18">
-        <f t="shared" ref="R28:U28" si="18">R18</f>
+        <f t="shared" ref="R28:T28" si="18">R18</f>
         <v>6</v>
       </c>
       <c r="S28" s="20" t="str">
@@ -2819,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" ref="R29:U29" si="19">R19</f>
+        <f t="shared" ref="R29:T29" si="19">R19</f>
         <v>7</v>
       </c>
       <c r="S29" s="20" t="str">
@@ -2842,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="R30" s="18">
-        <f t="shared" ref="R30:U30" si="20">R20</f>
+        <f t="shared" ref="R30:T30" si="20">R20</f>
         <v>8</v>
       </c>
       <c r="S30" s="20" t="str">
@@ -2865,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="R31" s="18">
-        <f t="shared" ref="R31:U31" si="21">R21</f>
+        <f t="shared" ref="R31:T31" si="21">R21</f>
         <v>9</v>
       </c>
       <c r="S31" s="20" t="str">
@@ -2890,7 +2899,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="18">
-        <f t="shared" ref="R32:U32" si="22">R22</f>
+        <f t="shared" ref="R32:T32" si="22">R22</f>
         <v>10</v>
       </c>
       <c r="S32" s="20" t="str">
@@ -2915,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" ref="R33:U33" si="23">R23</f>
+        <f t="shared" ref="R33:T33" si="23">R23</f>
         <v>1</v>
       </c>
       <c r="S33" s="20" t="str">
@@ -2940,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" ref="R34:U34" si="24">R24</f>
+        <f t="shared" ref="R34:T34" si="24">R24</f>
         <v>2</v>
       </c>
       <c r="S34" s="20" t="str">
@@ -2963,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" ref="R35:U35" si="25">R25</f>
+        <f t="shared" ref="R35:T35" si="25">R25</f>
         <v>3</v>
       </c>
       <c r="S35" s="20" t="str">
@@ -2986,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="18">
-        <f t="shared" ref="R36:U36" si="26">R26</f>
+        <f t="shared" ref="R36:T36" si="26">R26</f>
         <v>4</v>
       </c>
       <c r="S36" s="20" t="str">
@@ -3009,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="18">
-        <f t="shared" ref="R37:U37" si="27">R27</f>
+        <f t="shared" ref="R37:T37" si="27">R27</f>
         <v>5</v>
       </c>
       <c r="S37" s="20" t="str">
@@ -3032,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="18">
-        <f t="shared" ref="R38:U38" si="28">R28</f>
+        <f t="shared" ref="R38:T38" si="28">R28</f>
         <v>6</v>
       </c>
       <c r="S38" s="20" t="str">
@@ -3055,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="18">
-        <f t="shared" ref="R39:U39" si="29">R29</f>
+        <f t="shared" ref="R39:T39" si="29">R29</f>
         <v>7</v>
       </c>
       <c r="S39" s="20" t="str">
@@ -3076,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" ref="R40:U40" si="30">R30</f>
+        <f t="shared" ref="R40:T40" si="30">R30</f>
         <v>8</v>
       </c>
       <c r="S40" s="20" t="str">
@@ -3097,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" ref="R41:U41" si="31">R31</f>
+        <f t="shared" ref="R41:T41" si="31">R31</f>
         <v>9</v>
       </c>
       <c r="S41" s="20" t="str">
@@ -3118,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" ref="R42:U42" si="32">R32</f>
+        <f t="shared" ref="R42:T42" si="32">R32</f>
         <v>10</v>
       </c>
       <c r="S42" s="20" t="str">
@@ -3139,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" ref="R43:U43" si="33">R33</f>
+        <f t="shared" ref="R43:T43" si="33">R33</f>
         <v>1</v>
       </c>
       <c r="S43" s="20" t="str">
@@ -3160,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="R44" s="18">
-        <f t="shared" ref="R44:U44" si="34">R34</f>
+        <f t="shared" ref="R44:T44" si="34">R34</f>
         <v>2</v>
       </c>
       <c r="S44" s="20" t="str">
@@ -3181,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="R45" s="18">
-        <f t="shared" ref="R45:U45" si="35">R35</f>
+        <f t="shared" ref="R45:T45" si="35">R35</f>
         <v>3</v>
       </c>
       <c r="S45" s="20" t="str">
@@ -3202,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="R46" s="18">
-        <f t="shared" ref="R46:U46" si="36">R36</f>
+        <f t="shared" ref="R46:T46" si="36">R36</f>
         <v>4</v>
       </c>
       <c r="S46" s="20" t="str">
@@ -3223,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="R47" s="18">
-        <f t="shared" ref="R47:U47" si="37">R37</f>
+        <f t="shared" ref="R47:T47" si="37">R37</f>
         <v>5</v>
       </c>
       <c r="S47" s="20" t="str">
@@ -3244,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="R48" s="18">
-        <f t="shared" ref="R48:U48" si="38">R38</f>
+        <f t="shared" ref="R48:T48" si="38">R38</f>
         <v>6</v>
       </c>
       <c r="S48" s="20" t="str">
@@ -3265,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="R49" s="18">
-        <f t="shared" ref="R49:U49" si="39">R39</f>
+        <f t="shared" ref="R49:T49" si="39">R39</f>
         <v>7</v>
       </c>
       <c r="S49" s="20" t="str">
@@ -3286,7 +3295,7 @@
         <v>5</v>
       </c>
       <c r="R50" s="18">
-        <f t="shared" ref="R50:U50" si="40">R40</f>
+        <f t="shared" ref="R50:T50" si="40">R40</f>
         <v>8</v>
       </c>
       <c r="S50" s="20" t="str">
@@ -3307,7 +3316,7 @@
         <v>5</v>
       </c>
       <c r="R51" s="18">
-        <f t="shared" ref="R51:U51" si="41">R41</f>
+        <f t="shared" ref="R51:T51" si="41">R41</f>
         <v>9</v>
       </c>
       <c r="S51" s="20" t="str">
@@ -3328,7 +3337,7 @@
         <v>5</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" ref="R52:U52" si="42">R42</f>
+        <f t="shared" ref="R52:T52" si="42">R42</f>
         <v>10</v>
       </c>
       <c r="S52" s="20" t="str">
@@ -3349,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="18">
-        <f t="shared" ref="R53:U53" si="43">R43</f>
+        <f t="shared" ref="R53:T53" si="43">R43</f>
         <v>1</v>
       </c>
       <c r="S53" s="20" t="str">
@@ -3370,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="R54" s="18">
-        <f t="shared" ref="R54:U54" si="44">R44</f>
+        <f t="shared" ref="R54:T54" si="44">R44</f>
         <v>2</v>
       </c>
       <c r="S54" s="20" t="str">
@@ -3391,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="R55" s="18">
-        <f t="shared" ref="R55:U55" si="45">R45</f>
+        <f t="shared" ref="R55:T55" si="45">R45</f>
         <v>3</v>
       </c>
       <c r="S55" s="20" t="str">
@@ -3412,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="R56" s="18">
-        <f t="shared" ref="R56:U56" si="46">R46</f>
+        <f t="shared" ref="R56:T56" si="46">R46</f>
         <v>4</v>
       </c>
       <c r="S56" s="20" t="str">
@@ -3433,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="18">
-        <f t="shared" ref="R57:U57" si="47">R47</f>
+        <f t="shared" ref="R57:T57" si="47">R47</f>
         <v>5</v>
       </c>
       <c r="S57" s="20" t="str">
@@ -3454,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="18">
-        <f t="shared" ref="R58:U58" si="48">R48</f>
+        <f t="shared" ref="R58:T58" si="48">R48</f>
         <v>6</v>
       </c>
       <c r="S58" s="20" t="str">
@@ -3475,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="18">
-        <f t="shared" ref="R59:U59" si="49">R49</f>
+        <f t="shared" ref="R59:T59" si="49">R49</f>
         <v>7</v>
       </c>
       <c r="S59" s="20" t="str">
@@ -3496,7 +3505,7 @@
         <v>6</v>
       </c>
       <c r="R60" s="18">
-        <f t="shared" ref="R60:U60" si="50">R50</f>
+        <f t="shared" ref="R60:T60" si="50">R50</f>
         <v>8</v>
       </c>
       <c r="S60" s="20" t="str">
@@ -3517,7 +3526,7 @@
         <v>6</v>
       </c>
       <c r="R61" s="18">
-        <f t="shared" ref="R61:U61" si="51">R51</f>
+        <f t="shared" ref="R61:T61" si="51">R51</f>
         <v>9</v>
       </c>
       <c r="S61" s="20" t="str">
@@ -3538,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="R62" s="18">
-        <f t="shared" ref="R62:U62" si="52">R52</f>
+        <f t="shared" ref="R62:T62" si="52">R52</f>
         <v>10</v>
       </c>
       <c r="S62" s="20" t="str">
@@ -3559,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="R63" s="18">
-        <f t="shared" ref="R63:U63" si="53">R53</f>
+        <f t="shared" ref="R63:T63" si="53">R53</f>
         <v>1</v>
       </c>
       <c r="S63" s="20" t="str">
@@ -3580,7 +3589,7 @@
         <v>7</v>
       </c>
       <c r="R64" s="18">
-        <f t="shared" ref="R64:U64" si="54">R54</f>
+        <f t="shared" ref="R64:T64" si="54">R54</f>
         <v>2</v>
       </c>
       <c r="S64" s="20" t="str">
@@ -3601,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="R65" s="18">
-        <f t="shared" ref="R65:U65" si="55">R55</f>
+        <f t="shared" ref="R65:T65" si="55">R55</f>
         <v>3</v>
       </c>
       <c r="S65" s="20" t="str">
@@ -3622,7 +3631,7 @@
         <v>7</v>
       </c>
       <c r="R66" s="18">
-        <f t="shared" ref="R66:U66" si="56">R56</f>
+        <f t="shared" ref="R66:T66" si="56">R56</f>
         <v>4</v>
       </c>
       <c r="S66" s="20" t="str">
@@ -3643,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="R67" s="18">
-        <f t="shared" ref="R67:U67" si="57">R57</f>
+        <f t="shared" ref="R67:T67" si="57">R57</f>
         <v>5</v>
       </c>
       <c r="S67" s="20" t="str">
@@ -3664,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="R68" s="18">
-        <f t="shared" ref="R68:U68" si="58">R58</f>
+        <f t="shared" ref="R68:T68" si="58">R58</f>
         <v>6</v>
       </c>
       <c r="S68" s="20" t="str">
@@ -3685,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="R69" s="18">
-        <f t="shared" ref="R69:U69" si="59">R59</f>
+        <f t="shared" ref="R69:T69" si="59">R59</f>
         <v>7</v>
       </c>
       <c r="S69" s="20" t="str">
@@ -3706,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="R70" s="18">
-        <f t="shared" ref="R70:U70" si="60">R60</f>
+        <f t="shared" ref="R70:T70" si="60">R60</f>
         <v>8</v>
       </c>
       <c r="S70" s="20" t="str">
@@ -3727,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="R71" s="18">
-        <f t="shared" ref="R71:U71" si="61">R61</f>
+        <f t="shared" ref="R71:T71" si="61">R61</f>
         <v>9</v>
       </c>
       <c r="S71" s="20" t="str">
@@ -3748,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="R72" s="18">
-        <f t="shared" ref="R72:U72" si="62">R62</f>
+        <f t="shared" ref="R72:T72" si="62">R62</f>
         <v>10</v>
       </c>
       <c r="S72" s="20" t="str">
@@ -3769,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="R73" s="18">
-        <f t="shared" ref="R73:U73" si="63">R63</f>
+        <f t="shared" ref="R73:T73" si="63">R63</f>
         <v>1</v>
       </c>
       <c r="S73" s="20" t="str">
@@ -3790,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="R74" s="18">
-        <f t="shared" ref="R74:U74" si="64">R64</f>
+        <f t="shared" ref="R74:T74" si="64">R64</f>
         <v>2</v>
       </c>
       <c r="S74" s="20" t="str">
@@ -3811,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="R75" s="18">
-        <f t="shared" ref="R75:U75" si="65">R65</f>
+        <f t="shared" ref="R75:T75" si="65">R65</f>
         <v>3</v>
       </c>
       <c r="S75" s="20" t="str">
@@ -3832,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="R76" s="18">
-        <f t="shared" ref="R76:U76" si="66">R66</f>
+        <f t="shared" ref="R76:T76" si="66">R66</f>
         <v>4</v>
       </c>
       <c r="S76" s="20" t="str">
@@ -3853,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="R77" s="18">
-        <f t="shared" ref="R77:U77" si="67">R67</f>
+        <f t="shared" ref="R77:T77" si="67">R67</f>
         <v>5</v>
       </c>
       <c r="S77" s="20" t="str">
@@ -3870,11 +3879,11 @@
     </row>
     <row r="78" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q78" s="17">
-        <f t="shared" ref="Q78:Q139" si="68">Q68+1</f>
+        <f t="shared" ref="Q78:Q102" si="68">Q68+1</f>
         <v>8</v>
       </c>
       <c r="R78" s="18">
-        <f t="shared" ref="R78:U78" si="69">R68</f>
+        <f t="shared" ref="R78:T78" si="69">R68</f>
         <v>6</v>
       </c>
       <c r="S78" s="20" t="str">
@@ -3895,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="R79" s="18">
-        <f t="shared" ref="R79:U79" si="70">R69</f>
+        <f t="shared" ref="R79:T79" si="70">R69</f>
         <v>7</v>
       </c>
       <c r="S79" s="20" t="str">
@@ -3916,7 +3925,7 @@
         <v>8</v>
       </c>
       <c r="R80" s="18">
-        <f t="shared" ref="R80:U80" si="71">R70</f>
+        <f t="shared" ref="R80:T80" si="71">R70</f>
         <v>8</v>
       </c>
       <c r="S80" s="20" t="str">
@@ -3937,7 +3946,7 @@
         <v>8</v>
       </c>
       <c r="R81" s="18">
-        <f t="shared" ref="R81:U81" si="72">R71</f>
+        <f t="shared" ref="R81:T81" si="72">R71</f>
         <v>9</v>
       </c>
       <c r="S81" s="20" t="str">
@@ -3958,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="R82" s="18">
-        <f t="shared" ref="R82:U82" si="73">R72</f>
+        <f t="shared" ref="R82:T82" si="73">R72</f>
         <v>10</v>
       </c>
       <c r="S82" s="20" t="str">
@@ -3979,7 +3988,7 @@
         <v>9</v>
       </c>
       <c r="R83" s="18">
-        <f t="shared" ref="R83:U83" si="74">R73</f>
+        <f t="shared" ref="R83:T83" si="74">R73</f>
         <v>1</v>
       </c>
       <c r="S83" s="20" t="str">
@@ -4000,7 +4009,7 @@
         <v>9</v>
       </c>
       <c r="R84" s="18">
-        <f t="shared" ref="R84:U84" si="75">R74</f>
+        <f t="shared" ref="R84:T84" si="75">R74</f>
         <v>2</v>
       </c>
       <c r="S84" s="20" t="str">
@@ -4021,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="R85" s="18">
-        <f t="shared" ref="R85:U85" si="76">R75</f>
+        <f t="shared" ref="R85:T85" si="76">R75</f>
         <v>3</v>
       </c>
       <c r="S85" s="20" t="str">
@@ -4042,7 +4051,7 @@
         <v>9</v>
       </c>
       <c r="R86" s="18">
-        <f t="shared" ref="R86:U86" si="77">R76</f>
+        <f t="shared" ref="R86:T86" si="77">R76</f>
         <v>4</v>
       </c>
       <c r="S86" s="20" t="str">
@@ -4063,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="R87" s="18">
-        <f t="shared" ref="R87:U87" si="78">R77</f>
+        <f t="shared" ref="R87:T87" si="78">R77</f>
         <v>5</v>
       </c>
       <c r="S87" s="20" t="str">
@@ -4084,7 +4093,7 @@
         <v>9</v>
       </c>
       <c r="R88" s="18">
-        <f t="shared" ref="R88:U88" si="79">R78</f>
+        <f t="shared" ref="R88:T88" si="79">R78</f>
         <v>6</v>
       </c>
       <c r="S88" s="20" t="str">
@@ -4105,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="R89" s="18">
-        <f t="shared" ref="R89:U89" si="80">R79</f>
+        <f t="shared" ref="R89:T89" si="80">R79</f>
         <v>7</v>
       </c>
       <c r="S89" s="20" t="str">
@@ -4126,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="R90" s="18">
-        <f t="shared" ref="R90:U90" si="81">R80</f>
+        <f t="shared" ref="R90:T90" si="81">R80</f>
         <v>8</v>
       </c>
       <c r="S90" s="20" t="str">
@@ -4147,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="R91" s="18">
-        <f t="shared" ref="R91:U91" si="82">R81</f>
+        <f t="shared" ref="R91:T91" si="82">R81</f>
         <v>9</v>
       </c>
       <c r="S91" s="20" t="str">
@@ -4168,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="R92" s="18">
-        <f t="shared" ref="R92:U92" si="83">R82</f>
+        <f t="shared" ref="R92:T92" si="83">R82</f>
         <v>10</v>
       </c>
       <c r="S92" s="20" t="str">
@@ -4189,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="R93" s="18">
-        <f t="shared" ref="R93:U93" si="84">R83</f>
+        <f t="shared" ref="R93:T93" si="84">R83</f>
         <v>1</v>
       </c>
       <c r="S93" s="20" t="str">
@@ -4210,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="R94" s="18">
-        <f t="shared" ref="R94:U94" si="85">R84</f>
+        <f t="shared" ref="R94:T94" si="85">R84</f>
         <v>2</v>
       </c>
       <c r="S94" s="20" t="str">
@@ -4231,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="R95" s="18">
-        <f t="shared" ref="R95:U95" si="86">R85</f>
+        <f t="shared" ref="R95:T95" si="86">R85</f>
         <v>3</v>
       </c>
       <c r="S95" s="20" t="str">
@@ -4252,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="R96" s="18">
-        <f t="shared" ref="R96:U96" si="87">R86</f>
+        <f t="shared" ref="R96:T96" si="87">R86</f>
         <v>4</v>
       </c>
       <c r="S96" s="20" t="str">
@@ -4273,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="R97" s="18">
-        <f t="shared" ref="R97:U97" si="88">R87</f>
+        <f t="shared" ref="R97:T97" si="88">R87</f>
         <v>5</v>
       </c>
       <c r="S97" s="20" t="str">
@@ -4294,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="R98" s="18">
-        <f t="shared" ref="R98:U98" si="89">R88</f>
+        <f t="shared" ref="R98:T98" si="89">R88</f>
         <v>6</v>
       </c>
       <c r="S98" s="20" t="str">
@@ -4315,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" ref="R99:U99" si="90">R89</f>
+        <f t="shared" ref="R99:T99" si="90">R89</f>
         <v>7</v>
       </c>
       <c r="S99" s="20" t="str">
@@ -4336,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="R100" s="18">
-        <f t="shared" ref="R100:U100" si="91">R90</f>
+        <f t="shared" ref="R100:T100" si="91">R90</f>
         <v>8</v>
       </c>
       <c r="S100" s="20" t="str">
@@ -4357,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="R101" s="18">
-        <f t="shared" ref="R101:U101" si="92">R91</f>
+        <f t="shared" ref="R101:T101" si="92">R91</f>
         <v>9</v>
       </c>
       <c r="S101" s="20" t="str">
@@ -4378,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="18">
-        <f t="shared" ref="R102:U102" si="93">R92</f>
+        <f t="shared" ref="R102:T102" si="93">R92</f>
         <v>10</v>
       </c>
       <c r="S102" s="20" t="str">

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t>Does resource carry over time?</t>
   </si>
+  <si>
+    <t>Complexity 2</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +270,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,11 +339,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -366,7 +381,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -507,11 +522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203879488"/>
-        <c:axId val="203880064"/>
+        <c:axId val="150665984"/>
+        <c:axId val="150666560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203879488"/>
+        <c:axId val="150665984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,12 +536,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203880064"/>
+        <c:crossAx val="150666560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203880064"/>
+        <c:axId val="150666560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -538,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203879488"/>
+        <c:crossAx val="150665984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -879,7 +894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -948,7 +965,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1020,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1060,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
@@ -1092,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1144,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1146,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,124 +1347,135 @@
         <v>10</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1556,10 +1584,10 @@
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1720,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,39 +1774,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1862,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>1</v>
@@ -1871,8 +1899,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="19">
-        <f>MAX(F3-C3,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>2</v>
@@ -1893,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="17">
         <v>1</v>
@@ -1908,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="U3" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1928,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>1</v>
@@ -1937,8 +1964,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I9" si="0">MAX(F4-C4,0)</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.5</v>
       </c>
       <c r="M4" s="15">
         <v>2</v>
@@ -1950,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="17">
         <v>1</v>
@@ -1965,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1985,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>1</v>
@@ -1994,8 +2029,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="15">
         <v>3</v>
@@ -2007,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="17">
         <v>1</v>
@@ -2022,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="U5" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2042,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>1</v>
@@ -2051,8 +2085,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6" s="15">
         <v>4</v>
@@ -2064,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="17">
         <v>1</v>
@@ -2079,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="U6" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2099,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>1</v>
@@ -2108,8 +2141,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15">
         <v>5</v>
@@ -2121,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="17">
         <v>1</v>
@@ -2136,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="U7" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2156,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>1</v>
@@ -2165,8 +2197,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" s="15">
         <v>6</v>
@@ -2178,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="17">
         <v>1</v>
@@ -2193,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="U8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2213,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>1</v>
@@ -2222,8 +2253,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="15">
         <v>7</v>
@@ -2235,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="17">
         <v>1</v>
@@ -2250,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="U9" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2270,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>1</v>
@@ -2279,8 +2309,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" ref="I10:I12" si="1">MAX(F10-C10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="15">
         <v>8</v>
@@ -2292,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="17">
         <v>1</v>
@@ -2307,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="U10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2327,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>1</v>
@@ -2336,8 +2365,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" s="15">
         <v>9</v>
@@ -2349,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="17">
         <v>1</v>
@@ -2364,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2384,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>1</v>
@@ -2393,8 +2421,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M12" s="15">
         <v>10</v>
@@ -2406,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="17">
         <v>1</v>
@@ -2421,114 +2448,174 @@
         <v>3</v>
       </c>
       <c r="U12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q13" s="17">
         <f>Q3+1</f>
         <v>2</v>
       </c>
       <c r="R13" s="18">
-        <f t="shared" ref="R13:T13" si="2">R3</f>
+        <f t="shared" ref="R13:T13" si="0">R3</f>
         <v>1</v>
       </c>
       <c r="S13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Complexity 1</v>
+      </c>
+      <c r="T13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>CPU 1</v>
+      </c>
+      <c r="U13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M14" s="15">
+        <v>2</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" ref="Q14:Q77" si="1">Q4+1</f>
+        <v>2</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" ref="R14:T14" si="2">R4</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Complexity 1</v>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>CPU 1</v>
       </c>
-      <c r="U13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="17">
-        <f t="shared" ref="Q14:Q77" si="3">Q4+1</f>
-        <v>2</v>
-      </c>
-      <c r="R14" s="18">
-        <f t="shared" ref="R14:T14" si="4">R4</f>
-        <v>2</v>
-      </c>
-      <c r="S14" s="20" t="str">
+      <c r="U14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" ref="R15:T15" si="3">R5</f>
+        <v>3</v>
+      </c>
+      <c r="S15" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>Complexity 1</v>
+      </c>
+      <c r="T15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>CPU 1</v>
+      </c>
+      <c r="U15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M16" s="15">
+        <v>4</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" ref="R16:T16" si="4">R6</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Complexity 1</v>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T16" s="17" t="str">
         <f t="shared" si="4"/>
         <v>CPU 1</v>
       </c>
-      <c r="U14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q15" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R15" s="18">
-        <f t="shared" ref="R15:T15" si="5">R5</f>
-        <v>3</v>
-      </c>
-      <c r="S15" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>Complexity 1</v>
-      </c>
-      <c r="T15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>CPU 1</v>
-      </c>
-      <c r="U15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q16" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="18">
-        <f t="shared" ref="R16:T16" si="6">R6</f>
-        <v>4</v>
-      </c>
-      <c r="S16" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>Complexity 1</v>
-      </c>
-      <c r="T16" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>CPU 1</v>
-      </c>
       <c r="U16" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
+      <c r="M17" s="15">
+        <v>5</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R17" s="18">
-        <f t="shared" ref="R17:T17" si="7">R7</f>
+        <f t="shared" ref="R17:T17" si="5">R7</f>
         <v>5</v>
       </c>
       <c r="S17" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Complexity 1</v>
       </c>
       <c r="T17" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>CPU 1</v>
       </c>
       <c r="U17" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -2537,24 +2624,36 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
+      <c r="M18" s="15">
+        <v>6</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R18" s="18">
-        <f t="shared" ref="R18:T18" si="8">R8</f>
+        <f t="shared" ref="R18:T18" si="6">R8</f>
         <v>6</v>
       </c>
       <c r="S18" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Complexity 1</v>
       </c>
       <c r="T18" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>CPU 1</v>
       </c>
       <c r="U18" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -2566,24 +2665,36 @@
       <c r="E19" s="6"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
+      <c r="M19" s="15">
+        <v>7</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R19" s="18">
-        <f t="shared" ref="R19:T19" si="9">R9</f>
+        <f t="shared" ref="R19:T19" si="7">R9</f>
         <v>7</v>
       </c>
       <c r="S19" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Complexity 1</v>
       </c>
       <c r="T19" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>CPU 1</v>
       </c>
       <c r="U19" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -2595,24 +2706,36 @@
       <c r="E20" s="6"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
+      <c r="M20" s="15">
+        <v>8</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R20" s="18">
-        <f t="shared" ref="R20:T20" si="10">R10</f>
+        <f t="shared" ref="R20:T20" si="8">R10</f>
         <v>8</v>
       </c>
       <c r="S20" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>Complexity 1</v>
       </c>
       <c r="T20" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>CPU 1</v>
       </c>
       <c r="U20" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
@@ -2621,24 +2744,36 @@
       <c r="E21" s="6"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
+      <c r="M21" s="15">
+        <v>9</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" ref="R21:T21" si="11">R11</f>
+        <f t="shared" ref="R21:T21" si="9">R11</f>
         <v>9</v>
       </c>
       <c r="S21" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Complexity 1</v>
       </c>
       <c r="T21" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>CPU 1</v>
       </c>
       <c r="U21" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -2647,24 +2782,36 @@
       <c r="E22" s="6"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
+      <c r="M22" s="15">
+        <v>10</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R22" s="18">
-        <f t="shared" ref="R22:T22" si="12">R12</f>
+        <f t="shared" ref="R22:T22" si="10">R12</f>
         <v>10</v>
       </c>
       <c r="S22" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>Complexity 1</v>
       </c>
       <c r="T22" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>CPU 1</v>
       </c>
       <c r="U22" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
@@ -2674,23 +2821,23 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="Q23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" ref="R23:T23" si="13">R13</f>
+        <f t="shared" ref="R23:T23" si="11">R13</f>
         <v>1</v>
       </c>
       <c r="S23" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>Complexity 1</v>
       </c>
       <c r="T23" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>CPU 1</v>
       </c>
       <c r="U23" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
@@ -2699,23 +2846,23 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="Q24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" ref="R24:T24" si="14">R14</f>
+        <f t="shared" ref="R24:T24" si="12">R14</f>
         <v>2</v>
       </c>
       <c r="S24" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Complexity 1</v>
       </c>
       <c r="T24" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>CPU 1</v>
       </c>
       <c r="U24" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -2724,23 +2871,23 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="Q25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" ref="R25:T25" si="15">R15</f>
+        <f t="shared" ref="R25:T25" si="13">R15</f>
         <v>3</v>
       </c>
       <c r="S25" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Complexity 1</v>
       </c>
       <c r="T25" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>CPU 1</v>
       </c>
       <c r="U25" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -2749,23 +2896,23 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="Q26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" ref="R26:T26" si="16">R16</f>
+        <f t="shared" ref="R26:T26" si="14">R16</f>
         <v>4</v>
       </c>
       <c r="S26" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Complexity 1</v>
       </c>
       <c r="T26" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>CPU 1</v>
       </c>
       <c r="U26" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -2774,23 +2921,23 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="Q27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" ref="R27:T27" si="17">R17</f>
+        <f t="shared" ref="R27:T27" si="15">R17</f>
         <v>5</v>
       </c>
       <c r="S27" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Complexity 1</v>
       </c>
       <c r="T27" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>CPU 1</v>
       </c>
       <c r="U27" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2799,23 +2946,23 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="Q28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R28" s="18">
-        <f t="shared" ref="R28:T28" si="18">R18</f>
+        <f t="shared" ref="R28:T28" si="16">R18</f>
         <v>6</v>
       </c>
       <c r="S28" s="20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Complexity 1</v>
       </c>
       <c r="T28" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>CPU 1</v>
       </c>
       <c r="U28" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2824,69 +2971,69 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="Q29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" ref="R29:T29" si="19">R19</f>
+        <f t="shared" ref="R29:T29" si="17">R19</f>
         <v>7</v>
       </c>
       <c r="S29" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Complexity 1</v>
       </c>
       <c r="T29" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>CPU 1</v>
       </c>
       <c r="U29" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="Q30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R30" s="18">
-        <f t="shared" ref="R30:T30" si="20">R20</f>
+        <f t="shared" ref="R30:T30" si="18">R20</f>
         <v>8</v>
       </c>
       <c r="S30" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Complexity 1</v>
       </c>
       <c r="T30" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>CPU 1</v>
       </c>
       <c r="U30" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="Q31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R31" s="18">
-        <f t="shared" ref="R31:T31" si="21">R21</f>
+        <f t="shared" ref="R31:T31" si="19">R21</f>
         <v>9</v>
       </c>
       <c r="S31" s="20" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Complexity 1</v>
       </c>
       <c r="T31" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>CPU 1</v>
       </c>
       <c r="U31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -2895,23 +3042,23 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="Q32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R32" s="18">
-        <f t="shared" ref="R32:T32" si="22">R22</f>
+        <f t="shared" ref="R32:T32" si="20">R22</f>
         <v>10</v>
       </c>
       <c r="S32" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>Complexity 1</v>
       </c>
       <c r="T32" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>CPU 1</v>
       </c>
       <c r="U32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="6:21" x14ac:dyDescent="0.25">
@@ -2920,23 +3067,23 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="Q33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" ref="R33:T33" si="23">R23</f>
+        <f t="shared" ref="R33:T33" si="21">R23</f>
         <v>1</v>
       </c>
       <c r="S33" s="20" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>Complexity 1</v>
       </c>
       <c r="T33" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>CPU 1</v>
       </c>
       <c r="U33" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.25">
@@ -2945,1462 +3092,2162 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="Q34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" ref="R34:T34" si="24">R24</f>
+        <f t="shared" ref="R34:T34" si="22">R24</f>
         <v>2</v>
       </c>
       <c r="S34" s="20" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>Complexity 1</v>
       </c>
       <c r="T34" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>CPU 1</v>
       </c>
       <c r="U34" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F35" s="6"/>
       <c r="G35" s="4"/>
       <c r="Q35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R35" s="18">
-        <f t="shared" ref="R35:T35" si="25">R25</f>
+        <f t="shared" ref="R35:T35" si="23">R25</f>
         <v>3</v>
       </c>
       <c r="S35" s="20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>Complexity 1</v>
       </c>
       <c r="T35" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>CPU 1</v>
       </c>
       <c r="U35" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
       <c r="Q36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R36" s="18">
-        <f t="shared" ref="R36:T36" si="26">R26</f>
+        <f t="shared" ref="R36:T36" si="24">R26</f>
         <v>4</v>
       </c>
       <c r="S36" s="20" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>Complexity 1</v>
       </c>
       <c r="T36" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>CPU 1</v>
       </c>
       <c r="U36" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="G37" s="4"/>
       <c r="Q37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R37" s="18">
-        <f t="shared" ref="R37:T37" si="27">R27</f>
+        <f t="shared" ref="R37:T37" si="25">R27</f>
         <v>5</v>
       </c>
       <c r="S37" s="20" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>Complexity 1</v>
       </c>
       <c r="T37" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>CPU 1</v>
       </c>
       <c r="U37" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
       <c r="Q38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R38" s="18">
-        <f t="shared" ref="R38:T38" si="28">R28</f>
+        <f t="shared" ref="R38:T38" si="26">R28</f>
         <v>6</v>
       </c>
       <c r="S38" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>Complexity 1</v>
       </c>
       <c r="T38" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>CPU 1</v>
       </c>
       <c r="U38" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
       <c r="G39" s="4"/>
       <c r="Q39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R39" s="18">
-        <f t="shared" ref="R39:T39" si="29">R29</f>
+        <f t="shared" ref="R39:T39" si="27">R29</f>
         <v>7</v>
       </c>
       <c r="S39" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>Complexity 1</v>
       </c>
       <c r="T39" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>CPU 1</v>
       </c>
       <c r="U39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" ref="R40:T40" si="30">R30</f>
+        <f t="shared" ref="R40:T40" si="28">R30</f>
         <v>8</v>
       </c>
       <c r="S40" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>Complexity 1</v>
       </c>
       <c r="T40" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>CPU 1</v>
       </c>
       <c r="U40" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" ref="R41:T41" si="31">R31</f>
+        <f t="shared" ref="R41:T41" si="29">R31</f>
         <v>9</v>
       </c>
       <c r="S41" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>Complexity 1</v>
       </c>
       <c r="T41" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>CPU 1</v>
       </c>
       <c r="U41" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" ref="R42:T42" si="32">R32</f>
+        <f t="shared" ref="R42:T42" si="30">R32</f>
         <v>10</v>
       </c>
       <c r="S42" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>Complexity 1</v>
       </c>
       <c r="T42" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>CPU 1</v>
       </c>
       <c r="U42" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" ref="R43:T43" si="33">R33</f>
+        <f t="shared" ref="R43:T43" si="31">R33</f>
         <v>1</v>
       </c>
       <c r="S43" s="20" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Complexity 1</v>
       </c>
       <c r="T43" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>CPU 1</v>
       </c>
       <c r="U43" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R44" s="18">
-        <f t="shared" ref="R44:T44" si="34">R34</f>
+        <f t="shared" ref="R44:T44" si="32">R34</f>
         <v>2</v>
       </c>
       <c r="S44" s="20" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>Complexity 1</v>
       </c>
       <c r="T44" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>CPU 1</v>
       </c>
       <c r="U44" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R45" s="18">
-        <f t="shared" ref="R45:T45" si="35">R35</f>
+        <f t="shared" ref="R45:T45" si="33">R35</f>
         <v>3</v>
       </c>
       <c r="S45" s="20" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>Complexity 1</v>
       </c>
       <c r="T45" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>CPU 1</v>
       </c>
       <c r="U45" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R46" s="18">
-        <f t="shared" ref="R46:T46" si="36">R36</f>
+        <f t="shared" ref="R46:T46" si="34">R36</f>
         <v>4</v>
       </c>
       <c r="S46" s="20" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>Complexity 1</v>
       </c>
       <c r="T46" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>CPU 1</v>
       </c>
       <c r="U46" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R47" s="18">
-        <f t="shared" ref="R47:T47" si="37">R37</f>
+        <f t="shared" ref="R47:T47" si="35">R37</f>
         <v>5</v>
       </c>
       <c r="S47" s="20" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>Complexity 1</v>
       </c>
       <c r="T47" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>CPU 1</v>
       </c>
       <c r="U47" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="6:21" x14ac:dyDescent="0.25">
       <c r="Q48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R48" s="18">
-        <f t="shared" ref="R48:T48" si="38">R38</f>
+        <f t="shared" ref="R48:T48" si="36">R38</f>
         <v>6</v>
       </c>
       <c r="S48" s="20" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>Complexity 1</v>
       </c>
       <c r="T48" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>CPU 1</v>
       </c>
       <c r="U48" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R49" s="18">
-        <f t="shared" ref="R49:T49" si="39">R39</f>
+        <f t="shared" ref="R49:T49" si="37">R39</f>
         <v>7</v>
       </c>
       <c r="S49" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>Complexity 1</v>
       </c>
       <c r="T49" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>CPU 1</v>
       </c>
       <c r="U49" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R50" s="18">
-        <f t="shared" ref="R50:T50" si="40">R40</f>
+        <f t="shared" ref="R50:T50" si="38">R40</f>
         <v>8</v>
       </c>
       <c r="S50" s="20" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>Complexity 1</v>
       </c>
       <c r="T50" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>CPU 1</v>
       </c>
       <c r="U50" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R51" s="18">
-        <f t="shared" ref="R51:T51" si="41">R41</f>
+        <f t="shared" ref="R51:T51" si="39">R41</f>
         <v>9</v>
       </c>
       <c r="S51" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>Complexity 1</v>
       </c>
       <c r="T51" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>CPU 1</v>
       </c>
       <c r="U51" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" ref="R52:T52" si="42">R42</f>
+        <f t="shared" ref="R52:T52" si="40">R42</f>
         <v>10</v>
       </c>
       <c r="S52" s="20" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>Complexity 1</v>
       </c>
       <c r="T52" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>CPU 1</v>
       </c>
       <c r="U52" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R53" s="18">
-        <f t="shared" ref="R53:T53" si="43">R43</f>
+        <f t="shared" ref="R53:T53" si="41">R43</f>
         <v>1</v>
       </c>
       <c r="S53" s="20" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>Complexity 1</v>
       </c>
       <c r="T53" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>CPU 1</v>
       </c>
       <c r="U53" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R54" s="18">
-        <f t="shared" ref="R54:T54" si="44">R44</f>
+        <f t="shared" ref="R54:T54" si="42">R44</f>
         <v>2</v>
       </c>
       <c r="S54" s="20" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>Complexity 1</v>
       </c>
       <c r="T54" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>CPU 1</v>
       </c>
       <c r="U54" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R55" s="18">
-        <f t="shared" ref="R55:T55" si="45">R45</f>
+        <f t="shared" ref="R55:T55" si="43">R45</f>
         <v>3</v>
       </c>
       <c r="S55" s="20" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>Complexity 1</v>
       </c>
       <c r="T55" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>CPU 1</v>
       </c>
       <c r="U55" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R56" s="18">
-        <f t="shared" ref="R56:T56" si="46">R46</f>
+        <f t="shared" ref="R56:T56" si="44">R46</f>
         <v>4</v>
       </c>
       <c r="S56" s="20" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>Complexity 1</v>
       </c>
       <c r="T56" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>CPU 1</v>
       </c>
       <c r="U56" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R57" s="18">
-        <f t="shared" ref="R57:T57" si="47">R47</f>
+        <f t="shared" ref="R57:T57" si="45">R47</f>
         <v>5</v>
       </c>
       <c r="S57" s="20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>Complexity 1</v>
       </c>
       <c r="T57" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>CPU 1</v>
       </c>
       <c r="U57" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R58" s="18">
-        <f t="shared" ref="R58:T58" si="48">R48</f>
+        <f t="shared" ref="R58:T58" si="46">R48</f>
         <v>6</v>
       </c>
       <c r="S58" s="20" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Complexity 1</v>
       </c>
       <c r="T58" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>CPU 1</v>
       </c>
       <c r="U58" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R59" s="18">
-        <f t="shared" ref="R59:T59" si="49">R49</f>
+        <f t="shared" ref="R59:T59" si="47">R49</f>
         <v>7</v>
       </c>
       <c r="S59" s="20" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>Complexity 1</v>
       </c>
       <c r="T59" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>CPU 1</v>
       </c>
       <c r="U59" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R60" s="18">
-        <f t="shared" ref="R60:T60" si="50">R50</f>
+        <f t="shared" ref="R60:T60" si="48">R50</f>
         <v>8</v>
       </c>
       <c r="S60" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>Complexity 1</v>
       </c>
       <c r="T60" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>CPU 1</v>
       </c>
       <c r="U60" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q61" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R61" s="18">
-        <f t="shared" ref="R61:T61" si="51">R51</f>
+        <f t="shared" ref="R61:T61" si="49">R51</f>
         <v>9</v>
       </c>
       <c r="S61" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>Complexity 1</v>
       </c>
       <c r="T61" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>CPU 1</v>
       </c>
       <c r="U61" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q62" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R62" s="18">
-        <f t="shared" ref="R62:T62" si="52">R52</f>
+        <f t="shared" ref="R62:T62" si="50">R52</f>
         <v>10</v>
       </c>
       <c r="S62" s="20" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>Complexity 1</v>
       </c>
       <c r="T62" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>CPU 1</v>
       </c>
       <c r="U62" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q63" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R63" s="18">
-        <f t="shared" ref="R63:T63" si="53">R53</f>
+        <f t="shared" ref="R63:T63" si="51">R53</f>
         <v>1</v>
       </c>
       <c r="S63" s="20" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>Complexity 1</v>
       </c>
       <c r="T63" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>CPU 1</v>
       </c>
       <c r="U63" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q64" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R64" s="18">
-        <f t="shared" ref="R64:T64" si="54">R54</f>
+        <f t="shared" ref="R64:T64" si="52">R54</f>
         <v>2</v>
       </c>
       <c r="S64" s="20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Complexity 1</v>
       </c>
       <c r="T64" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>CPU 1</v>
       </c>
       <c r="U64" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q65" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R65" s="18">
-        <f t="shared" ref="R65:T65" si="55">R55</f>
+        <f t="shared" ref="R65:T65" si="53">R55</f>
         <v>3</v>
       </c>
       <c r="S65" s="20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>Complexity 1</v>
       </c>
       <c r="T65" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>CPU 1</v>
       </c>
       <c r="U65" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q66" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R66" s="18">
-        <f t="shared" ref="R66:T66" si="56">R56</f>
+        <f t="shared" ref="R66:T66" si="54">R56</f>
         <v>4</v>
       </c>
       <c r="S66" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>Complexity 1</v>
       </c>
       <c r="T66" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>CPU 1</v>
       </c>
       <c r="U66" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R67" s="18">
-        <f t="shared" ref="R67:T67" si="57">R57</f>
+        <f t="shared" ref="R67:T67" si="55">R57</f>
         <v>5</v>
       </c>
       <c r="S67" s="20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>Complexity 1</v>
       </c>
       <c r="T67" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>CPU 1</v>
       </c>
       <c r="U67" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q68" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R68" s="18">
-        <f t="shared" ref="R68:T68" si="58">R58</f>
+        <f t="shared" ref="R68:T68" si="56">R58</f>
         <v>6</v>
       </c>
       <c r="S68" s="20" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>Complexity 1</v>
       </c>
       <c r="T68" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>CPU 1</v>
       </c>
       <c r="U68" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q69" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R69" s="18">
-        <f t="shared" ref="R69:T69" si="59">R59</f>
+        <f t="shared" ref="R69:T69" si="57">R59</f>
         <v>7</v>
       </c>
       <c r="S69" s="20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>Complexity 1</v>
       </c>
       <c r="T69" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>CPU 1</v>
       </c>
       <c r="U69" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R70" s="18">
-        <f t="shared" ref="R70:T70" si="60">R60</f>
+        <f t="shared" ref="R70:T70" si="58">R60</f>
         <v>8</v>
       </c>
       <c r="S70" s="20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>Complexity 1</v>
       </c>
       <c r="T70" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>CPU 1</v>
       </c>
       <c r="U70" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q71" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R71" s="18">
-        <f t="shared" ref="R71:T71" si="61">R61</f>
+        <f t="shared" ref="R71:T71" si="59">R61</f>
         <v>9</v>
       </c>
       <c r="S71" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>Complexity 1</v>
       </c>
       <c r="T71" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>CPU 1</v>
       </c>
       <c r="U71" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R72" s="18">
-        <f t="shared" ref="R72:T72" si="62">R62</f>
+        <f t="shared" ref="R72:T72" si="60">R62</f>
         <v>10</v>
       </c>
       <c r="S72" s="20" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>Complexity 1</v>
       </c>
       <c r="T72" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>CPU 1</v>
       </c>
       <c r="U72" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R73" s="18">
-        <f t="shared" ref="R73:T73" si="63">R63</f>
+        <f t="shared" ref="R73:T73" si="61">R63</f>
         <v>1</v>
       </c>
       <c r="S73" s="20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>Complexity 1</v>
       </c>
       <c r="T73" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>CPU 1</v>
       </c>
       <c r="U73" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q74" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R74" s="18">
-        <f t="shared" ref="R74:T74" si="64">R64</f>
+        <f t="shared" ref="R74:T74" si="62">R64</f>
         <v>2</v>
       </c>
       <c r="S74" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>Complexity 1</v>
       </c>
       <c r="T74" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>CPU 1</v>
       </c>
       <c r="U74" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q75" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R75" s="18">
-        <f t="shared" ref="R75:T75" si="65">R65</f>
+        <f t="shared" ref="R75:T75" si="63">R65</f>
         <v>3</v>
       </c>
       <c r="S75" s="20" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>Complexity 1</v>
       </c>
       <c r="T75" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>CPU 1</v>
       </c>
       <c r="U75" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q76" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R76" s="18">
-        <f t="shared" ref="R76:T76" si="66">R66</f>
+        <f t="shared" ref="R76:T76" si="64">R66</f>
         <v>4</v>
       </c>
       <c r="S76" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Complexity 1</v>
       </c>
       <c r="T76" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>CPU 1</v>
       </c>
       <c r="U76" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q77" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R77" s="18">
-        <f t="shared" ref="R77:T77" si="67">R67</f>
+        <f t="shared" ref="R77:T77" si="65">R67</f>
         <v>5</v>
       </c>
       <c r="S77" s="20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>Complexity 1</v>
       </c>
       <c r="T77" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>CPU 1</v>
       </c>
       <c r="U77" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q78" s="17">
-        <f t="shared" ref="Q78:Q102" si="68">Q68+1</f>
+        <f t="shared" ref="Q78:Q102" si="66">Q68+1</f>
         <v>8</v>
       </c>
       <c r="R78" s="18">
-        <f t="shared" ref="R78:T78" si="69">R68</f>
+        <f t="shared" ref="R78:T78" si="67">R68</f>
         <v>6</v>
       </c>
       <c r="S78" s="20" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>Complexity 1</v>
       </c>
       <c r="T78" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>CPU 1</v>
       </c>
       <c r="U78" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q79" s="17">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="R79" s="18">
+        <f t="shared" ref="R79:T79" si="68">R69</f>
+        <v>7</v>
+      </c>
+      <c r="S79" s="20" t="str">
         <f t="shared" si="68"/>
-        <v>8</v>
-      </c>
-      <c r="R79" s="18">
-        <f t="shared" ref="R79:T79" si="70">R69</f>
-        <v>7</v>
-      </c>
-      <c r="S79" s="20" t="str">
-        <f t="shared" si="70"/>
         <v>Complexity 1</v>
       </c>
       <c r="T79" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>CPU 1</v>
       </c>
       <c r="U79" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q80" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>8</v>
       </c>
       <c r="R80" s="18">
-        <f t="shared" ref="R80:T80" si="71">R70</f>
+        <f t="shared" ref="R80:T80" si="69">R70</f>
         <v>8</v>
       </c>
       <c r="S80" s="20" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>Complexity 1</v>
       </c>
       <c r="T80" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>CPU 1</v>
       </c>
       <c r="U80" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q81" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>8</v>
       </c>
       <c r="R81" s="18">
-        <f t="shared" ref="R81:T81" si="72">R71</f>
+        <f t="shared" ref="R81:T81" si="70">R71</f>
         <v>9</v>
       </c>
       <c r="S81" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>Complexity 1</v>
       </c>
       <c r="T81" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>CPU 1</v>
       </c>
       <c r="U81" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q82" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>8</v>
       </c>
       <c r="R82" s="18">
-        <f t="shared" ref="R82:T82" si="73">R72</f>
+        <f t="shared" ref="R82:T82" si="71">R72</f>
         <v>10</v>
       </c>
       <c r="S82" s="20" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>Complexity 1</v>
       </c>
       <c r="T82" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>CPU 1</v>
       </c>
       <c r="U82" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q83" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R83" s="18">
-        <f t="shared" ref="R83:T83" si="74">R73</f>
+        <f t="shared" ref="R83:T83" si="72">R73</f>
         <v>1</v>
       </c>
       <c r="S83" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>Complexity 1</v>
       </c>
       <c r="T83" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>CPU 1</v>
       </c>
       <c r="U83" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q84" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R84" s="18">
-        <f t="shared" ref="R84:T84" si="75">R74</f>
+        <f t="shared" ref="R84:T84" si="73">R74</f>
         <v>2</v>
       </c>
       <c r="S84" s="20" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>Complexity 1</v>
       </c>
       <c r="T84" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>CPU 1</v>
       </c>
       <c r="U84" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q85" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R85" s="18">
-        <f t="shared" ref="R85:T85" si="76">R75</f>
+        <f t="shared" ref="R85:T85" si="74">R75</f>
         <v>3</v>
       </c>
       <c r="S85" s="20" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>Complexity 1</v>
       </c>
       <c r="T85" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>CPU 1</v>
       </c>
       <c r="U85" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q86" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R86" s="18">
-        <f t="shared" ref="R86:T86" si="77">R76</f>
+        <f t="shared" ref="R86:T86" si="75">R76</f>
         <v>4</v>
       </c>
       <c r="S86" s="20" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>Complexity 1</v>
       </c>
       <c r="T86" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>CPU 1</v>
       </c>
       <c r="U86" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q87" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R87" s="18">
-        <f t="shared" ref="R87:T87" si="78">R77</f>
+        <f t="shared" ref="R87:T87" si="76">R77</f>
         <v>5</v>
       </c>
       <c r="S87" s="20" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Complexity 1</v>
       </c>
       <c r="T87" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>CPU 1</v>
       </c>
       <c r="U87" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q88" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R88" s="18">
-        <f t="shared" ref="R88:T88" si="79">R78</f>
+        <f t="shared" ref="R88:T88" si="77">R78</f>
         <v>6</v>
       </c>
       <c r="S88" s="20" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>Complexity 1</v>
       </c>
       <c r="T88" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>CPU 1</v>
       </c>
       <c r="U88" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q89" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R89" s="18">
-        <f t="shared" ref="R89:T89" si="80">R79</f>
+        <f t="shared" ref="R89:T89" si="78">R79</f>
         <v>7</v>
       </c>
       <c r="S89" s="20" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>Complexity 1</v>
       </c>
       <c r="T89" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>CPU 1</v>
       </c>
       <c r="U89" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q90" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R90" s="18">
-        <f t="shared" ref="R90:T90" si="81">R80</f>
+        <f t="shared" ref="R90:T90" si="79">R80</f>
         <v>8</v>
       </c>
       <c r="S90" s="20" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>Complexity 1</v>
       </c>
       <c r="T90" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>CPU 1</v>
       </c>
       <c r="U90" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q91" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R91" s="18">
-        <f t="shared" ref="R91:T91" si="82">R81</f>
+        <f t="shared" ref="R91:T91" si="80">R81</f>
         <v>9</v>
       </c>
       <c r="S91" s="20" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>Complexity 1</v>
       </c>
       <c r="T91" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>CPU 1</v>
       </c>
       <c r="U91" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q92" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="R92" s="18">
-        <f t="shared" ref="R92:T92" si="83">R82</f>
+        <f t="shared" ref="R92:T92" si="81">R82</f>
         <v>10</v>
       </c>
       <c r="S92" s="20" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>Complexity 1</v>
       </c>
       <c r="T92" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>CPU 1</v>
       </c>
       <c r="U92" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q93" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R93" s="18">
-        <f t="shared" ref="R93:T93" si="84">R83</f>
+        <f t="shared" ref="R93:T93" si="82">R83</f>
         <v>1</v>
       </c>
       <c r="S93" s="20" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>Complexity 1</v>
       </c>
       <c r="T93" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>CPU 1</v>
       </c>
       <c r="U93" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q94" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R94" s="18">
-        <f t="shared" ref="R94:T94" si="85">R84</f>
+        <f t="shared" ref="R94:T94" si="83">R84</f>
         <v>2</v>
       </c>
       <c r="S94" s="20" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>Complexity 1</v>
       </c>
       <c r="T94" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>CPU 1</v>
       </c>
       <c r="U94" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q95" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R95" s="18">
-        <f t="shared" ref="R95:T95" si="86">R85</f>
+        <f t="shared" ref="R95:T95" si="84">R85</f>
         <v>3</v>
       </c>
       <c r="S95" s="20" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>Complexity 1</v>
       </c>
       <c r="T95" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>CPU 1</v>
       </c>
       <c r="U95" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q96" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R96" s="18">
-        <f t="shared" ref="R96:T96" si="87">R86</f>
+        <f t="shared" ref="R96:T96" si="85">R86</f>
         <v>4</v>
       </c>
       <c r="S96" s="20" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>Complexity 1</v>
       </c>
       <c r="T96" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>CPU 1</v>
       </c>
       <c r="U96" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q97" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R97" s="18">
-        <f t="shared" ref="R97:T97" si="88">R87</f>
+        <f t="shared" ref="R97:T97" si="86">R87</f>
         <v>5</v>
       </c>
       <c r="S97" s="20" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>Complexity 1</v>
       </c>
       <c r="T97" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>CPU 1</v>
       </c>
       <c r="U97" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q98" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R98" s="18">
-        <f t="shared" ref="R98:T98" si="89">R88</f>
+        <f t="shared" ref="R98:T98" si="87">R88</f>
         <v>6</v>
       </c>
       <c r="S98" s="20" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>Complexity 1</v>
       </c>
       <c r="T98" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>CPU 1</v>
       </c>
       <c r="U98" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q99" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" ref="R99:T99" si="90">R89</f>
+        <f t="shared" ref="R99:T99" si="88">R89</f>
         <v>7</v>
       </c>
       <c r="S99" s="20" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>Complexity 1</v>
       </c>
       <c r="T99" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>CPU 1</v>
       </c>
       <c r="U99" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q100" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R100" s="18">
-        <f t="shared" ref="R100:T100" si="91">R90</f>
+        <f t="shared" ref="R100:T100" si="89">R90</f>
         <v>8</v>
       </c>
       <c r="S100" s="20" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>Complexity 1</v>
       </c>
       <c r="T100" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>CPU 1</v>
       </c>
       <c r="U100" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q101" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R101" s="18">
-        <f t="shared" ref="R101:T101" si="92">R91</f>
+        <f t="shared" ref="R101:T101" si="90">R91</f>
         <v>9</v>
       </c>
       <c r="S101" s="20" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>Complexity 1</v>
       </c>
       <c r="T101" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>CPU 1</v>
       </c>
       <c r="U101" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q102" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="R102" s="18">
-        <f t="shared" ref="R102:T102" si="93">R92</f>
+        <f t="shared" ref="R102:T102" si="91">R92</f>
         <v>10</v>
       </c>
       <c r="S102" s="20" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>Complexity 1</v>
       </c>
       <c r="T102" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>CPU 1</v>
       </c>
       <c r="U102" s="20">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q103" s="17"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="20"/>
+    </row>
+    <row r="104" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q104" s="17"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="20"/>
+    </row>
+    <row r="105" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q105" s="17"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="20"/>
+    </row>
+    <row r="106" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q106" s="17"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="20"/>
+    </row>
+    <row r="107" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q107" s="17"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="20"/>
+    </row>
+    <row r="108" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q108" s="17"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="20"/>
+    </row>
+    <row r="109" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q109" s="17"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="20"/>
+    </row>
+    <row r="110" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q110" s="17"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="20"/>
+    </row>
+    <row r="111" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q111" s="17"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="20"/>
+    </row>
+    <row r="112" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q112" s="17"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="20"/>
+    </row>
+    <row r="113" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q113" s="17"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="20"/>
+    </row>
+    <row r="114" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q114" s="17"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="20"/>
+    </row>
+    <row r="115" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q115" s="17"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="20"/>
+    </row>
+    <row r="116" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q116" s="17"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="20"/>
+    </row>
+    <row r="117" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q117" s="17"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="29"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="20"/>
+    </row>
+    <row r="118" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q118" s="17"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="20"/>
+    </row>
+    <row r="119" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q119" s="17"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="29"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="20"/>
+    </row>
+    <row r="120" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q120" s="17"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="20"/>
+    </row>
+    <row r="121" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q121" s="17"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="29"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="20"/>
+    </row>
+    <row r="122" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q122" s="17"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="29"/>
+      <c r="T122" s="17"/>
+      <c r="U122" s="20"/>
+    </row>
+    <row r="123" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q123" s="17"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="29"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="20"/>
+    </row>
+    <row r="124" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q124" s="17"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="17"/>
+      <c r="U124" s="20"/>
+    </row>
+    <row r="125" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q125" s="17"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="17"/>
+      <c r="U125" s="20"/>
+    </row>
+    <row r="126" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q126" s="17"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="29"/>
+      <c r="T126" s="17"/>
+      <c r="U126" s="20"/>
+    </row>
+    <row r="127" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q127" s="17"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="29"/>
+      <c r="T127" s="17"/>
+      <c r="U127" s="20"/>
+    </row>
+    <row r="128" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q128" s="17"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="29"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="20"/>
+    </row>
+    <row r="129" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q129" s="17"/>
+      <c r="R129" s="18"/>
+      <c r="S129" s="29"/>
+      <c r="T129" s="17"/>
+      <c r="U129" s="20"/>
+    </row>
+    <row r="130" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q130" s="17"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="29"/>
+      <c r="T130" s="17"/>
+      <c r="U130" s="20"/>
+    </row>
+    <row r="131" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q131" s="17"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="29"/>
+      <c r="T131" s="17"/>
+      <c r="U131" s="20"/>
+    </row>
+    <row r="132" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q132" s="17"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="29"/>
+      <c r="T132" s="17"/>
+      <c r="U132" s="20"/>
+    </row>
+    <row r="133" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q133" s="17"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="29"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="20"/>
+    </row>
+    <row r="134" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q134" s="17"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="29"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="20"/>
+    </row>
+    <row r="135" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q135" s="17"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="29"/>
+      <c r="T135" s="17"/>
+      <c r="U135" s="20"/>
+    </row>
+    <row r="136" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q136" s="17"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="29"/>
+      <c r="T136" s="17"/>
+      <c r="U136" s="20"/>
+    </row>
+    <row r="137" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q137" s="17"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="20"/>
+    </row>
+    <row r="138" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q138" s="17"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="17"/>
+      <c r="U138" s="20"/>
+    </row>
+    <row r="139" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q139" s="17"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="29"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="20"/>
+    </row>
+    <row r="140" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q140" s="17"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="29"/>
+      <c r="T140" s="17"/>
+      <c r="U140" s="20"/>
+    </row>
+    <row r="141" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q141" s="17"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="17"/>
+      <c r="U141" s="20"/>
+    </row>
+    <row r="142" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q142" s="17"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="29"/>
+      <c r="T142" s="17"/>
+      <c r="U142" s="20"/>
+    </row>
+    <row r="143" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q143" s="17"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="20"/>
+    </row>
+    <row r="144" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q144" s="17"/>
+      <c r="R144" s="18"/>
+      <c r="S144" s="29"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="20"/>
+    </row>
+    <row r="145" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q145" s="17"/>
+      <c r="R145" s="18"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="20"/>
+    </row>
+    <row r="146" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q146" s="17"/>
+      <c r="R146" s="18"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="20"/>
+    </row>
+    <row r="147" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q147" s="17"/>
+      <c r="R147" s="18"/>
+      <c r="S147" s="29"/>
+      <c r="T147" s="17"/>
+      <c r="U147" s="20"/>
+    </row>
+    <row r="148" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q148" s="17"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="17"/>
+      <c r="U148" s="20"/>
+    </row>
+    <row r="149" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q149" s="17"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="29"/>
+      <c r="T149" s="17"/>
+      <c r="U149" s="20"/>
+    </row>
+    <row r="150" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q150" s="17"/>
+      <c r="R150" s="18"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="17"/>
+      <c r="U150" s="20"/>
+    </row>
+    <row r="151" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q151" s="17"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="17"/>
+      <c r="U151" s="20"/>
+    </row>
+    <row r="152" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q152" s="17"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="29"/>
+      <c r="T152" s="17"/>
+      <c r="U152" s="20"/>
+    </row>
+    <row r="153" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q153" s="17"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="29"/>
+      <c r="T153" s="17"/>
+      <c r="U153" s="20"/>
+    </row>
+    <row r="154" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q154" s="17"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="17"/>
+      <c r="U154" s="20"/>
+    </row>
+    <row r="155" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q155" s="17"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="20"/>
+    </row>
+    <row r="156" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q156" s="17"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="17"/>
+      <c r="U156" s="20"/>
+    </row>
+    <row r="157" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q157" s="17"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="29"/>
+      <c r="T157" s="17"/>
+      <c r="U157" s="20"/>
+    </row>
+    <row r="158" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q158" s="17"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="20"/>
+    </row>
+    <row r="159" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q159" s="17"/>
+      <c r="R159" s="18"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="20"/>
+    </row>
+    <row r="160" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q160" s="17"/>
+      <c r="R160" s="18"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="17"/>
+      <c r="U160" s="20"/>
+    </row>
+    <row r="161" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q161" s="17"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="17"/>
+      <c r="U161" s="20"/>
+    </row>
+    <row r="162" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q162" s="17"/>
+      <c r="R162" s="18"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="20"/>
+    </row>
+    <row r="163" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q163" s="17"/>
+      <c r="R163" s="18"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="20"/>
+    </row>
+    <row r="164" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q164" s="17"/>
+      <c r="R164" s="18"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="20"/>
+    </row>
+    <row r="165" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q165" s="17"/>
+      <c r="R165" s="18"/>
+      <c r="S165" s="29"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="20"/>
+    </row>
+    <row r="166" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q166" s="17"/>
+      <c r="R166" s="18"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="20"/>
+    </row>
+    <row r="167" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q167" s="17"/>
+      <c r="R167" s="18"/>
+      <c r="S167" s="29"/>
+      <c r="T167" s="17"/>
+      <c r="U167" s="20"/>
+    </row>
+    <row r="168" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q168" s="17"/>
+      <c r="R168" s="18"/>
+      <c r="S168" s="29"/>
+      <c r="T168" s="17"/>
+      <c r="U168" s="20"/>
+    </row>
+    <row r="169" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q169" s="17"/>
+      <c r="R169" s="18"/>
+      <c r="S169" s="29"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="20"/>
+    </row>
+    <row r="170" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q170" s="17"/>
+      <c r="R170" s="18"/>
+      <c r="S170" s="29"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="20"/>
+    </row>
+    <row r="171" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q171" s="17"/>
+      <c r="R171" s="18"/>
+      <c r="S171" s="29"/>
+      <c r="T171" s="17"/>
+      <c r="U171" s="20"/>
+    </row>
+    <row r="172" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q172" s="17"/>
+      <c r="R172" s="18"/>
+      <c r="S172" s="29"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="20"/>
+    </row>
+    <row r="173" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q173" s="17"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="29"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="20"/>
+    </row>
+    <row r="174" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q174" s="17"/>
+      <c r="R174" s="18"/>
+      <c r="S174" s="29"/>
+      <c r="T174" s="17"/>
+      <c r="U174" s="20"/>
+    </row>
+    <row r="175" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q175" s="17"/>
+      <c r="R175" s="18"/>
+      <c r="S175" s="29"/>
+      <c r="T175" s="17"/>
+      <c r="U175" s="20"/>
+    </row>
+    <row r="176" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q176" s="17"/>
+      <c r="R176" s="18"/>
+      <c r="S176" s="29"/>
+      <c r="T176" s="17"/>
+      <c r="U176" s="20"/>
+    </row>
+    <row r="177" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q177" s="17"/>
+      <c r="R177" s="18"/>
+      <c r="S177" s="29"/>
+      <c r="T177" s="17"/>
+      <c r="U177" s="20"/>
+    </row>
+    <row r="178" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q178" s="17"/>
+      <c r="R178" s="18"/>
+      <c r="S178" s="29"/>
+      <c r="T178" s="17"/>
+      <c r="U178" s="20"/>
+    </row>
+    <row r="179" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q179" s="17"/>
+      <c r="R179" s="18"/>
+      <c r="S179" s="29"/>
+      <c r="T179" s="17"/>
+      <c r="U179" s="20"/>
+    </row>
+    <row r="180" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q180" s="17"/>
+      <c r="R180" s="18"/>
+      <c r="S180" s="29"/>
+      <c r="T180" s="17"/>
+      <c r="U180" s="20"/>
+    </row>
+    <row r="181" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q181" s="17"/>
+      <c r="R181" s="18"/>
+      <c r="S181" s="29"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="20"/>
+    </row>
+    <row r="182" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q182" s="17"/>
+      <c r="R182" s="18"/>
+      <c r="S182" s="29"/>
+      <c r="T182" s="17"/>
+      <c r="U182" s="20"/>
+    </row>
+    <row r="183" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q183" s="17"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="29"/>
+      <c r="T183" s="17"/>
+      <c r="U183" s="20"/>
+    </row>
+    <row r="184" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q184" s="17"/>
+      <c r="R184" s="18"/>
+      <c r="S184" s="29"/>
+      <c r="T184" s="17"/>
+      <c r="U184" s="20"/>
+    </row>
+    <row r="185" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q185" s="17"/>
+      <c r="R185" s="18"/>
+      <c r="S185" s="29"/>
+      <c r="T185" s="17"/>
+      <c r="U185" s="20"/>
+    </row>
+    <row r="186" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q186" s="17"/>
+      <c r="R186" s="18"/>
+      <c r="S186" s="29"/>
+      <c r="T186" s="17"/>
+      <c r="U186" s="20"/>
+    </row>
+    <row r="187" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q187" s="17"/>
+      <c r="R187" s="18"/>
+      <c r="S187" s="29"/>
+      <c r="T187" s="17"/>
+      <c r="U187" s="20"/>
+    </row>
+    <row r="188" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q188" s="17"/>
+      <c r="R188" s="18"/>
+      <c r="S188" s="29"/>
+      <c r="T188" s="17"/>
+      <c r="U188" s="20"/>
+    </row>
+    <row r="189" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q189" s="17"/>
+      <c r="R189" s="18"/>
+      <c r="S189" s="29"/>
+      <c r="T189" s="17"/>
+      <c r="U189" s="20"/>
+    </row>
+    <row r="190" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q190" s="17"/>
+      <c r="R190" s="18"/>
+      <c r="S190" s="29"/>
+      <c r="T190" s="17"/>
+      <c r="U190" s="20"/>
+    </row>
+    <row r="191" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q191" s="17"/>
+      <c r="R191" s="18"/>
+      <c r="S191" s="29"/>
+      <c r="T191" s="17"/>
+      <c r="U191" s="20"/>
+    </row>
+    <row r="192" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q192" s="17"/>
+      <c r="R192" s="18"/>
+      <c r="S192" s="29"/>
+      <c r="T192" s="17"/>
+      <c r="U192" s="20"/>
+    </row>
+    <row r="193" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q193" s="17"/>
+      <c r="R193" s="18"/>
+      <c r="S193" s="29"/>
+      <c r="T193" s="17"/>
+      <c r="U193" s="20"/>
+    </row>
+    <row r="194" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q194" s="17"/>
+      <c r="R194" s="18"/>
+      <c r="S194" s="29"/>
+      <c r="T194" s="17"/>
+      <c r="U194" s="20"/>
+    </row>
+    <row r="195" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q195" s="17"/>
+      <c r="R195" s="18"/>
+      <c r="S195" s="29"/>
+      <c r="T195" s="17"/>
+      <c r="U195" s="20"/>
+    </row>
+    <row r="196" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q196" s="17"/>
+      <c r="R196" s="18"/>
+      <c r="S196" s="29"/>
+      <c r="T196" s="17"/>
+      <c r="U196" s="20"/>
+    </row>
+    <row r="197" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q197" s="17"/>
+      <c r="R197" s="18"/>
+      <c r="S197" s="29"/>
+      <c r="T197" s="17"/>
+      <c r="U197" s="20"/>
+    </row>
+    <row r="198" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q198" s="17"/>
+      <c r="R198" s="18"/>
+      <c r="S198" s="29"/>
+      <c r="T198" s="17"/>
+      <c r="U198" s="20"/>
+    </row>
+    <row r="199" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q199" s="17"/>
+      <c r="R199" s="18"/>
+      <c r="S199" s="29"/>
+      <c r="T199" s="17"/>
+      <c r="U199" s="20"/>
+    </row>
+    <row r="200" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q200" s="17"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="29"/>
+      <c r="T200" s="17"/>
+      <c r="U200" s="20"/>
+    </row>
+    <row r="201" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q201" s="17"/>
+      <c r="R201" s="18"/>
+      <c r="S201" s="29"/>
+      <c r="T201" s="17"/>
+      <c r="U201" s="20"/>
+    </row>
+    <row r="202" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q202" s="17"/>
+      <c r="R202" s="18"/>
+      <c r="S202" s="29"/>
+      <c r="T202" s="17"/>
+      <c r="U202" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="42">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -153,9 +153,6 @@
   <si>
     <t>Does resource carry over time?</t>
   </si>
-  <si>
-    <t>Complexity 2</t>
-  </si>
 </sst>
 </file>
 
@@ -270,7 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,15 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -522,11 +510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150665984"/>
-        <c:axId val="150666560"/>
+        <c:axId val="152894208"/>
+        <c:axId val="152894784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150665984"/>
+        <c:axId val="152894208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,12 +524,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150666560"/>
+        <c:crossAx val="152894784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150666560"/>
+        <c:axId val="152894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -553,7 +541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150665984"/>
+        <c:crossAx val="152894208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U202"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,15 +1954,6 @@
       <c r="I4" s="19">
         <v>10</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0.5</v>
-      </c>
       <c r="M4" s="15">
         <v>2</v>
       </c>
@@ -2452,18 +2431,6 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M13" s="15">
-        <v>1</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q13" s="17">
         <f>Q3+1</f>
         <v>2</v>
@@ -2485,18 +2452,6 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M14" s="15">
-        <v>2</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q14" s="17">
         <f t="shared" ref="Q14:Q77" si="1">Q4+1</f>
         <v>2</v>
@@ -2518,18 +2473,6 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M15" s="15">
-        <v>3</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q15" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2551,18 +2494,6 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M16" s="15">
-        <v>4</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q16" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2586,18 +2517,6 @@
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="M17" s="15">
-        <v>5</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q17" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2624,18 +2543,6 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="M18" s="15">
-        <v>6</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q18" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2665,18 +2572,6 @@
       <c r="E19" s="6"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="M19" s="15">
-        <v>7</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q19" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2706,18 +2601,6 @@
       <c r="E20" s="6"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="M20" s="15">
-        <v>8</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q20" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2744,18 +2627,6 @@
       <c r="E21" s="6"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="M21" s="15">
-        <v>9</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q21" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2782,18 +2653,6 @@
       <c r="E22" s="6"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="M22" s="15">
-        <v>10</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0.5</v>
-      </c>
       <c r="Q22" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4548,706 +4407,6 @@
       <c r="U102" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q103" s="17"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="20"/>
-    </row>
-    <row r="104" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q104" s="17"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="20"/>
-    </row>
-    <row r="105" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q105" s="17"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="20"/>
-    </row>
-    <row r="106" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q106" s="17"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="20"/>
-    </row>
-    <row r="107" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q107" s="17"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="20"/>
-    </row>
-    <row r="108" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q108" s="17"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="20"/>
-    </row>
-    <row r="109" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q109" s="17"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="20"/>
-    </row>
-    <row r="110" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q110" s="17"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="20"/>
-    </row>
-    <row r="111" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q111" s="17"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="20"/>
-    </row>
-    <row r="112" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q112" s="17"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="20"/>
-    </row>
-    <row r="113" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q113" s="17"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="20"/>
-    </row>
-    <row r="114" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q114" s="17"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="20"/>
-    </row>
-    <row r="115" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q115" s="17"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="20"/>
-    </row>
-    <row r="116" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q116" s="17"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="20"/>
-    </row>
-    <row r="117" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q117" s="17"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="17"/>
-      <c r="U117" s="20"/>
-    </row>
-    <row r="118" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q118" s="17"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="20"/>
-    </row>
-    <row r="119" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q119" s="17"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="20"/>
-    </row>
-    <row r="120" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q120" s="17"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="20"/>
-    </row>
-    <row r="121" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q121" s="17"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="20"/>
-    </row>
-    <row r="122" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q122" s="17"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="17"/>
-      <c r="U122" s="20"/>
-    </row>
-    <row r="123" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q123" s="17"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="20"/>
-    </row>
-    <row r="124" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q124" s="17"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="17"/>
-      <c r="U124" s="20"/>
-    </row>
-    <row r="125" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q125" s="17"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="17"/>
-      <c r="U125" s="20"/>
-    </row>
-    <row r="126" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q126" s="17"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="17"/>
-      <c r="U126" s="20"/>
-    </row>
-    <row r="127" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q127" s="17"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="17"/>
-      <c r="U127" s="20"/>
-    </row>
-    <row r="128" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q128" s="17"/>
-      <c r="R128" s="18"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="17"/>
-      <c r="U128" s="20"/>
-    </row>
-    <row r="129" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q129" s="17"/>
-      <c r="R129" s="18"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="20"/>
-    </row>
-    <row r="130" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q130" s="17"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="20"/>
-    </row>
-    <row r="131" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q131" s="17"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="20"/>
-    </row>
-    <row r="132" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q132" s="17"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="17"/>
-      <c r="U132" s="20"/>
-    </row>
-    <row r="133" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q133" s="17"/>
-      <c r="R133" s="18"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="17"/>
-      <c r="U133" s="20"/>
-    </row>
-    <row r="134" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q134" s="17"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="20"/>
-    </row>
-    <row r="135" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q135" s="17"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="20"/>
-    </row>
-    <row r="136" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q136" s="17"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="20"/>
-    </row>
-    <row r="137" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q137" s="17"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="29"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="20"/>
-    </row>
-    <row r="138" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q138" s="17"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="29"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="20"/>
-    </row>
-    <row r="139" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q139" s="17"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="29"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="20"/>
-    </row>
-    <row r="140" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q140" s="17"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="29"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="20"/>
-    </row>
-    <row r="141" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q141" s="17"/>
-      <c r="R141" s="18"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="17"/>
-      <c r="U141" s="20"/>
-    </row>
-    <row r="142" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q142" s="17"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="17"/>
-      <c r="U142" s="20"/>
-    </row>
-    <row r="143" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q143" s="17"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="17"/>
-      <c r="U143" s="20"/>
-    </row>
-    <row r="144" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q144" s="17"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="17"/>
-      <c r="U144" s="20"/>
-    </row>
-    <row r="145" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q145" s="17"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="20"/>
-    </row>
-    <row r="146" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q146" s="17"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="17"/>
-      <c r="U146" s="20"/>
-    </row>
-    <row r="147" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q147" s="17"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="29"/>
-      <c r="T147" s="17"/>
-      <c r="U147" s="20"/>
-    </row>
-    <row r="148" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q148" s="17"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="29"/>
-      <c r="T148" s="17"/>
-      <c r="U148" s="20"/>
-    </row>
-    <row r="149" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q149" s="17"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="29"/>
-      <c r="T149" s="17"/>
-      <c r="U149" s="20"/>
-    </row>
-    <row r="150" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q150" s="17"/>
-      <c r="R150" s="18"/>
-      <c r="S150" s="29"/>
-      <c r="T150" s="17"/>
-      <c r="U150" s="20"/>
-    </row>
-    <row r="151" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q151" s="17"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="29"/>
-      <c r="T151" s="17"/>
-      <c r="U151" s="20"/>
-    </row>
-    <row r="152" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q152" s="17"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="29"/>
-      <c r="T152" s="17"/>
-      <c r="U152" s="20"/>
-    </row>
-    <row r="153" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q153" s="17"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="29"/>
-      <c r="T153" s="17"/>
-      <c r="U153" s="20"/>
-    </row>
-    <row r="154" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q154" s="17"/>
-      <c r="R154" s="18"/>
-      <c r="S154" s="29"/>
-      <c r="T154" s="17"/>
-      <c r="U154" s="20"/>
-    </row>
-    <row r="155" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q155" s="17"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="29"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="20"/>
-    </row>
-    <row r="156" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q156" s="17"/>
-      <c r="R156" s="18"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="17"/>
-      <c r="U156" s="20"/>
-    </row>
-    <row r="157" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q157" s="17"/>
-      <c r="R157" s="18"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="17"/>
-      <c r="U157" s="20"/>
-    </row>
-    <row r="158" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q158" s="17"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="29"/>
-      <c r="T158" s="17"/>
-      <c r="U158" s="20"/>
-    </row>
-    <row r="159" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q159" s="17"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="29"/>
-      <c r="T159" s="17"/>
-      <c r="U159" s="20"/>
-    </row>
-    <row r="160" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q160" s="17"/>
-      <c r="R160" s="18"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="17"/>
-      <c r="U160" s="20"/>
-    </row>
-    <row r="161" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q161" s="17"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="29"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="20"/>
-    </row>
-    <row r="162" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q162" s="17"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="29"/>
-      <c r="T162" s="17"/>
-      <c r="U162" s="20"/>
-    </row>
-    <row r="163" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q163" s="17"/>
-      <c r="R163" s="18"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="17"/>
-      <c r="U163" s="20"/>
-    </row>
-    <row r="164" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q164" s="17"/>
-      <c r="R164" s="18"/>
-      <c r="S164" s="29"/>
-      <c r="T164" s="17"/>
-      <c r="U164" s="20"/>
-    </row>
-    <row r="165" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q165" s="17"/>
-      <c r="R165" s="18"/>
-      <c r="S165" s="29"/>
-      <c r="T165" s="17"/>
-      <c r="U165" s="20"/>
-    </row>
-    <row r="166" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q166" s="17"/>
-      <c r="R166" s="18"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="17"/>
-      <c r="U166" s="20"/>
-    </row>
-    <row r="167" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q167" s="17"/>
-      <c r="R167" s="18"/>
-      <c r="S167" s="29"/>
-      <c r="T167" s="17"/>
-      <c r="U167" s="20"/>
-    </row>
-    <row r="168" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q168" s="17"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="29"/>
-      <c r="T168" s="17"/>
-      <c r="U168" s="20"/>
-    </row>
-    <row r="169" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q169" s="17"/>
-      <c r="R169" s="18"/>
-      <c r="S169" s="29"/>
-      <c r="T169" s="17"/>
-      <c r="U169" s="20"/>
-    </row>
-    <row r="170" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q170" s="17"/>
-      <c r="R170" s="18"/>
-      <c r="S170" s="29"/>
-      <c r="T170" s="17"/>
-      <c r="U170" s="20"/>
-    </row>
-    <row r="171" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q171" s="17"/>
-      <c r="R171" s="18"/>
-      <c r="S171" s="29"/>
-      <c r="T171" s="17"/>
-      <c r="U171" s="20"/>
-    </row>
-    <row r="172" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q172" s="17"/>
-      <c r="R172" s="18"/>
-      <c r="S172" s="29"/>
-      <c r="T172" s="17"/>
-      <c r="U172" s="20"/>
-    </row>
-    <row r="173" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q173" s="17"/>
-      <c r="R173" s="18"/>
-      <c r="S173" s="29"/>
-      <c r="T173" s="17"/>
-      <c r="U173" s="20"/>
-    </row>
-    <row r="174" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q174" s="17"/>
-      <c r="R174" s="18"/>
-      <c r="S174" s="29"/>
-      <c r="T174" s="17"/>
-      <c r="U174" s="20"/>
-    </row>
-    <row r="175" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q175" s="17"/>
-      <c r="R175" s="18"/>
-      <c r="S175" s="29"/>
-      <c r="T175" s="17"/>
-      <c r="U175" s="20"/>
-    </row>
-    <row r="176" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q176" s="17"/>
-      <c r="R176" s="18"/>
-      <c r="S176" s="29"/>
-      <c r="T176" s="17"/>
-      <c r="U176" s="20"/>
-    </row>
-    <row r="177" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q177" s="17"/>
-      <c r="R177" s="18"/>
-      <c r="S177" s="29"/>
-      <c r="T177" s="17"/>
-      <c r="U177" s="20"/>
-    </row>
-    <row r="178" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q178" s="17"/>
-      <c r="R178" s="18"/>
-      <c r="S178" s="29"/>
-      <c r="T178" s="17"/>
-      <c r="U178" s="20"/>
-    </row>
-    <row r="179" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q179" s="17"/>
-      <c r="R179" s="18"/>
-      <c r="S179" s="29"/>
-      <c r="T179" s="17"/>
-      <c r="U179" s="20"/>
-    </row>
-    <row r="180" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q180" s="17"/>
-      <c r="R180" s="18"/>
-      <c r="S180" s="29"/>
-      <c r="T180" s="17"/>
-      <c r="U180" s="20"/>
-    </row>
-    <row r="181" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q181" s="17"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="29"/>
-      <c r="T181" s="17"/>
-      <c r="U181" s="20"/>
-    </row>
-    <row r="182" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q182" s="17"/>
-      <c r="R182" s="18"/>
-      <c r="S182" s="29"/>
-      <c r="T182" s="17"/>
-      <c r="U182" s="20"/>
-    </row>
-    <row r="183" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q183" s="17"/>
-      <c r="R183" s="18"/>
-      <c r="S183" s="29"/>
-      <c r="T183" s="17"/>
-      <c r="U183" s="20"/>
-    </row>
-    <row r="184" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q184" s="17"/>
-      <c r="R184" s="18"/>
-      <c r="S184" s="29"/>
-      <c r="T184" s="17"/>
-      <c r="U184" s="20"/>
-    </row>
-    <row r="185" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q185" s="17"/>
-      <c r="R185" s="18"/>
-      <c r="S185" s="29"/>
-      <c r="T185" s="17"/>
-      <c r="U185" s="20"/>
-    </row>
-    <row r="186" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q186" s="17"/>
-      <c r="R186" s="18"/>
-      <c r="S186" s="29"/>
-      <c r="T186" s="17"/>
-      <c r="U186" s="20"/>
-    </row>
-    <row r="187" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q187" s="17"/>
-      <c r="R187" s="18"/>
-      <c r="S187" s="29"/>
-      <c r="T187" s="17"/>
-      <c r="U187" s="20"/>
-    </row>
-    <row r="188" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q188" s="17"/>
-      <c r="R188" s="18"/>
-      <c r="S188" s="29"/>
-      <c r="T188" s="17"/>
-      <c r="U188" s="20"/>
-    </row>
-    <row r="189" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q189" s="17"/>
-      <c r="R189" s="18"/>
-      <c r="S189" s="29"/>
-      <c r="T189" s="17"/>
-      <c r="U189" s="20"/>
-    </row>
-    <row r="190" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q190" s="17"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="29"/>
-      <c r="T190" s="17"/>
-      <c r="U190" s="20"/>
-    </row>
-    <row r="191" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q191" s="17"/>
-      <c r="R191" s="18"/>
-      <c r="S191" s="29"/>
-      <c r="T191" s="17"/>
-      <c r="U191" s="20"/>
-    </row>
-    <row r="192" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q192" s="17"/>
-      <c r="R192" s="18"/>
-      <c r="S192" s="29"/>
-      <c r="T192" s="17"/>
-      <c r="U192" s="20"/>
-    </row>
-    <row r="193" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q193" s="17"/>
-      <c r="R193" s="18"/>
-      <c r="S193" s="29"/>
-      <c r="T193" s="17"/>
-      <c r="U193" s="20"/>
-    </row>
-    <row r="194" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q194" s="17"/>
-      <c r="R194" s="18"/>
-      <c r="S194" s="29"/>
-      <c r="T194" s="17"/>
-      <c r="U194" s="20"/>
-    </row>
-    <row r="195" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q195" s="17"/>
-      <c r="R195" s="18"/>
-      <c r="S195" s="29"/>
-      <c r="T195" s="17"/>
-      <c r="U195" s="20"/>
-    </row>
-    <row r="196" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q196" s="17"/>
-      <c r="R196" s="18"/>
-      <c r="S196" s="29"/>
-      <c r="T196" s="17"/>
-      <c r="U196" s="20"/>
-    </row>
-    <row r="197" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q197" s="17"/>
-      <c r="R197" s="18"/>
-      <c r="S197" s="29"/>
-      <c r="T197" s="17"/>
-      <c r="U197" s="20"/>
-    </row>
-    <row r="198" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q198" s="17"/>
-      <c r="R198" s="18"/>
-      <c r="S198" s="29"/>
-      <c r="T198" s="17"/>
-      <c r="U198" s="20"/>
-    </row>
-    <row r="199" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q199" s="17"/>
-      <c r="R199" s="18"/>
-      <c r="S199" s="29"/>
-      <c r="T199" s="17"/>
-      <c r="U199" s="20"/>
-    </row>
-    <row r="200" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q200" s="17"/>
-      <c r="R200" s="18"/>
-      <c r="S200" s="29"/>
-      <c r="T200" s="17"/>
-      <c r="U200" s="20"/>
-    </row>
-    <row r="201" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q201" s="17"/>
-      <c r="R201" s="18"/>
-      <c r="S201" s="29"/>
-      <c r="T201" s="17"/>
-      <c r="U201" s="20"/>
-    </row>
-    <row r="202" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q202" s="17"/>
-      <c r="R202" s="18"/>
-      <c r="S202" s="29"/>
-      <c r="T202" s="17"/>
-      <c r="U202" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="41">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -371,7 +371,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -512,11 +512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185202304"/>
-        <c:axId val="185202880"/>
+        <c:axId val="159120704"/>
+        <c:axId val="288882688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185202304"/>
+        <c:axId val="159120704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,12 +526,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185202880"/>
+        <c:crossAx val="288882688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185202880"/>
+        <c:axId val="288882688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -543,7 +543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185202304"/>
+        <c:crossAx val="159120704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1986,8 +1986,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <f>ROUNDUP(A2^'Indices Data'!B2,0)</f>
-        <v>1</v>
+        <f>ROUNDUP(A2^10,0)</f>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>10</v>
+        <v>10.022</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="19">
-        <v>0</v>
+        <v>7.016</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="19">
-        <v>0</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="J3" s="20">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="20">
-        <v>10</v>
+        <v>10.031000000000001</v>
       </c>
       <c r="N3" s="18">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="19">
-        <v>0</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="R4" s="19">
-        <v>0</v>
+        <v>4.0090000000000003</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>35</v>
@@ -2389,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>0</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="R5" s="19">
-        <v>0</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>36</v>
@@ -2448,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="19">
-        <v>0</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="R6" s="19">
-        <v>0</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="19">
-        <v>0</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="R8" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2824,33 +2824,15 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0</v>
-      </c>
+      <c r="A13" s="23"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="20">
         <v>10</v>
       </c>
@@ -2880,33 +2862,15 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19">
-        <v>10</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
+      <c r="A14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -2928,33 +2892,15 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19">
-        <v>10</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>3</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
+      <c r="A15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -2972,37 +2918,19 @@
         <v>3</v>
       </c>
       <c r="R15" s="19">
-        <v>0</v>
+        <v>2.528</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="19">
-        <v>4</v>
-      </c>
-      <c r="C16" s="19">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <v>4</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>4</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
+      <c r="A16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -3020,37 +2948,19 @@
         <v>3</v>
       </c>
       <c r="R16" s="19">
-        <v>0</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>5</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>5</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -3068,37 +2978,19 @@
         <v>3</v>
       </c>
       <c r="R17" s="19">
-        <v>0</v>
+        <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
-        <v>6</v>
-      </c>
-      <c r="C18" s="19">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>6</v>
-      </c>
-      <c r="I18" s="19">
-        <v>0</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -3116,37 +3008,19 @@
         <v>3</v>
       </c>
       <c r="R18" s="19">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19">
-        <v>7</v>
-      </c>
-      <c r="C19" s="19">
-        <v>10</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>7</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>7</v>
-      </c>
-      <c r="I19" s="19">
-        <v>0</v>
-      </c>
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -3164,37 +3038,19 @@
         <v>3</v>
       </c>
       <c r="R19" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19">
-        <v>8</v>
-      </c>
-      <c r="C20" s="19">
-        <v>10</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21">
-        <v>8</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19">
-        <v>8</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3216,33 +3072,15 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="19">
-        <v>9</v>
-      </c>
-      <c r="C21" s="19">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21">
-        <v>9</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>9</v>
-      </c>
-      <c r="I21" s="19">
-        <v>0</v>
-      </c>
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3264,33 +3102,15 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19">
-        <v>10</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
-        <v>10</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19">
-        <v>10</v>
-      </c>
-      <c r="I22" s="19">
-        <v>0</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -3428,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="19">
-        <v>0</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3458,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3488,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="R28" s="19">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3518,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="R29" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3758,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="19">
-        <v>0</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3788,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="R38" s="19">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3818,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -4088,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="19">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -4118,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -4327,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="19">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="38">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -129,15 +129,6 @@
   <si>
     <t>Expected
 Value</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>sc, m can be 0</t>
-  </si>
-  <si>
-    <t>rsc, m cant be 0</t>
   </si>
   <si>
     <t>TL Limit - at what point is extra wait negative?</t>
@@ -271,7 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,9 +301,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,24 +312,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,11 +493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159120704"/>
-        <c:axId val="288882688"/>
+        <c:axId val="149486912"/>
+        <c:axId val="295567360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159120704"/>
+        <c:axId val="149486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,12 +507,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288882688"/>
+        <c:crossAx val="295567360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288882688"/>
+        <c:axId val="295567360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -543,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159120704"/>
+        <c:crossAx val="149486912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,7 +866,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,8 +915,8 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,94 +931,94 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -1105,7 +1086,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -1381,7 +1362,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="str">
@@ -1952,7 +1933,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,10 +1957,10 @@
       <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1993,7 +1974,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2140,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,2911 +2135,2681 @@
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="27" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-    </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
         <v>10.022</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="D3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
         <v>7.016</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="20">
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16">
         <v>10.031000000000001</v>
       </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
         <v>3.5150000000000001</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
-        <v>2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="19">
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="18">
         <v>4.0090000000000003</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21">
-        <v>3</v>
-      </c>
-      <c r="F5" s="19">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18">
         <v>1.1719999999999999</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>3</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>2</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="19">
-        <v>2</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="19">
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="18">
         <v>2.5270000000000001</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="19">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
         <v>4</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>7.8E-2</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>3</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19">
-        <v>3</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="H7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>4</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="19">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="H8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
         <v>5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="M8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>5</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>4</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
-        <v>4</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>7</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="19">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="H9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
         <v>6</v>
       </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>6</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>5</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>5</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="M9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>8</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="19">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="H10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
         <v>7</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>7</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>6</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>6</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="M10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="19">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="H11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
         <v>8</v>
       </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>8</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>7</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
-        <v>7</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="M11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="19">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="H12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>9</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>8</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
-        <v>8</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21">
-        <v>10</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>9</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
-        <v>9</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="M12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20">
-        <v>10</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
-        <v>1</v>
-      </c>
-      <c r="O13" s="19">
-        <v>10</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="G13" s="16">
+        <v>10</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>10</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="18">
-        <v>2</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18">
+        <v>2</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="18">
-        <v>2</v>
-      </c>
-      <c r="O15" s="19">
-        <v>1</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="19">
+      <c r="J15" s="19"/>
+      <c r="K15" s="18">
+        <v>2</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="18">
         <v>2.528</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="18">
-        <v>2</v>
-      </c>
-      <c r="O16" s="19">
-        <v>2</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" s="19">
+      <c r="J16" s="19"/>
+      <c r="K16" s="18">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18">
+        <v>2</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="18">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="18">
-        <v>2</v>
-      </c>
-      <c r="O17" s="19">
-        <v>3</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="19">
+      <c r="J17" s="19"/>
+      <c r="K17" s="18">
+        <v>2</v>
+      </c>
+      <c r="L17" s="18">
+        <v>3</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="18">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="18">
-        <v>2</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="J18" s="19"/>
+      <c r="K18" s="18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="18">
         <v>4</v>
       </c>
-      <c r="P18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="19">
+      <c r="M18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="18">
-        <v>2</v>
-      </c>
-      <c r="O19" s="19">
+      <c r="J19" s="19"/>
+      <c r="K19" s="18">
+        <v>2</v>
+      </c>
+      <c r="L19" s="18">
         <v>5</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="19">
+      <c r="M19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="18">
-        <v>2</v>
-      </c>
-      <c r="O20" s="19">
+      <c r="J20" s="19"/>
+      <c r="K20" s="18">
+        <v>2</v>
+      </c>
+      <c r="L20" s="18">
         <v>6</v>
       </c>
-      <c r="P20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="M20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="18">
-        <v>2</v>
-      </c>
-      <c r="O21" s="19">
+      <c r="J21" s="19"/>
+      <c r="K21" s="18">
+        <v>2</v>
+      </c>
+      <c r="L21" s="18">
         <v>7</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="M21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="18">
-        <v>2</v>
-      </c>
-      <c r="O22" s="19">
+      <c r="J22" s="19"/>
+      <c r="K22" s="18">
+        <v>2</v>
+      </c>
+      <c r="L22" s="18">
         <v>8</v>
       </c>
-      <c r="P22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="M22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="18">
-        <v>2</v>
-      </c>
-      <c r="O23" s="19">
+      <c r="J23" s="19"/>
+      <c r="K23" s="18">
+        <v>2</v>
+      </c>
+      <c r="L23" s="18">
         <v>9</v>
       </c>
-      <c r="P23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="M23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="18">
-        <v>2</v>
-      </c>
-      <c r="O24" s="19">
-        <v>10</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
+        <v>2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>10</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="18">
-        <v>3</v>
-      </c>
-      <c r="O25" s="19">
-        <v>0</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18">
+        <v>3</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="18">
-        <v>3</v>
-      </c>
-      <c r="O26" s="19">
-        <v>1</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="19">
+      <c r="J26" s="19"/>
+      <c r="K26" s="18">
+        <v>3</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="18">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="18">
-        <v>3</v>
-      </c>
-      <c r="O27" s="19">
-        <v>2</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="19">
+      <c r="J27" s="19"/>
+      <c r="K27" s="18">
+        <v>3</v>
+      </c>
+      <c r="L27" s="18">
+        <v>2</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="18">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="18">
-        <v>3</v>
-      </c>
-      <c r="O28" s="19">
-        <v>3</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R28" s="19">
+      <c r="J28" s="19"/>
+      <c r="K28" s="18">
+        <v>3</v>
+      </c>
+      <c r="L28" s="18">
+        <v>3</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="18">
-        <v>3</v>
-      </c>
-      <c r="O29" s="19">
+      <c r="J29" s="19"/>
+      <c r="K29" s="18">
+        <v>3</v>
+      </c>
+      <c r="L29" s="18">
         <v>4</v>
       </c>
-      <c r="P29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="19">
+      <c r="M29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="18">
-        <v>3</v>
-      </c>
-      <c r="O30" s="19">
+      <c r="J30" s="19"/>
+      <c r="K30" s="18">
+        <v>3</v>
+      </c>
+      <c r="L30" s="18">
         <v>5</v>
       </c>
-      <c r="P30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="M30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="18">
-        <v>3</v>
-      </c>
-      <c r="O31" s="19">
+      <c r="J31" s="19"/>
+      <c r="K31" s="18">
+        <v>3</v>
+      </c>
+      <c r="L31" s="18">
         <v>6</v>
       </c>
-      <c r="P31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="M31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="18">
-        <v>3</v>
-      </c>
-      <c r="O32" s="19">
+      <c r="J32" s="19"/>
+      <c r="K32" s="18">
+        <v>3</v>
+      </c>
+      <c r="L32" s="18">
         <v>7</v>
       </c>
-      <c r="P32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="M32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="18">
-        <v>3</v>
-      </c>
-      <c r="O33" s="19">
+      <c r="J33" s="19"/>
+      <c r="K33" s="18">
+        <v>3</v>
+      </c>
+      <c r="L33" s="18">
         <v>8</v>
       </c>
-      <c r="P33" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="M33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="18">
-        <v>3</v>
-      </c>
-      <c r="O34" s="19">
+      <c r="J34" s="19"/>
+      <c r="K34" s="18">
+        <v>3</v>
+      </c>
+      <c r="L34" s="18">
         <v>9</v>
       </c>
-      <c r="P34" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="M34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="18">
-        <v>3</v>
-      </c>
-      <c r="O35" s="19">
-        <v>10</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18">
+        <v>3</v>
+      </c>
+      <c r="L35" s="18">
+        <v>10</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="18">
+      <c r="J36" s="19"/>
+      <c r="K36" s="18">
         <v>4</v>
       </c>
-      <c r="O36" s="19">
-        <v>0</v>
-      </c>
-      <c r="P36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="18">
+      <c r="J37" s="19"/>
+      <c r="K37" s="18">
         <v>4</v>
       </c>
-      <c r="O37" s="19">
-        <v>1</v>
-      </c>
-      <c r="P37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R37" s="19">
+      <c r="L37" s="18">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="18">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="18">
+      <c r="J38" s="19"/>
+      <c r="K38" s="18">
         <v>4</v>
       </c>
-      <c r="O38" s="19">
-        <v>2</v>
-      </c>
-      <c r="P38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="19">
+      <c r="L38" s="18">
+        <v>2</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="18">
+      <c r="J39" s="19"/>
+      <c r="K39" s="18">
         <v>4</v>
       </c>
-      <c r="O39" s="19">
-        <v>3</v>
-      </c>
-      <c r="P39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R39" s="19">
+      <c r="L39" s="18">
+        <v>3</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="18">
+      <c r="J40" s="19"/>
+      <c r="K40" s="18">
         <v>4</v>
       </c>
-      <c r="O40" s="19">
+      <c r="L40" s="18">
         <v>4</v>
       </c>
-      <c r="P40" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="M40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="18">
+      <c r="J41" s="19"/>
+      <c r="K41" s="18">
         <v>4</v>
       </c>
-      <c r="O41" s="19">
+      <c r="L41" s="18">
         <v>5</v>
       </c>
-      <c r="P41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="M41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="18">
+      <c r="J42" s="19"/>
+      <c r="K42" s="18">
         <v>4</v>
       </c>
-      <c r="O42" s="19">
+      <c r="L42" s="18">
         <v>6</v>
       </c>
-      <c r="P42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="M42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="18">
+      <c r="J43" s="19"/>
+      <c r="K43" s="18">
         <v>4</v>
       </c>
-      <c r="O43" s="19">
+      <c r="L43" s="18">
         <v>7</v>
       </c>
-      <c r="P43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="M43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="18">
+      <c r="J44" s="19"/>
+      <c r="K44" s="18">
         <v>4</v>
       </c>
-      <c r="O44" s="19">
+      <c r="L44" s="18">
         <v>8</v>
       </c>
-      <c r="P44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="M44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="18">
+      <c r="J45" s="19"/>
+      <c r="K45" s="18">
         <v>4</v>
       </c>
-      <c r="O45" s="19">
+      <c r="L45" s="18">
         <v>9</v>
       </c>
-      <c r="P45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="M45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="18">
+      <c r="J46" s="19"/>
+      <c r="K46" s="18">
         <v>4</v>
       </c>
-      <c r="O46" s="19">
-        <v>10</v>
-      </c>
-      <c r="P46" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="L46" s="18">
+        <v>10</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="18">
+      <c r="J47" s="19"/>
+      <c r="K47" s="18">
         <v>5</v>
       </c>
-      <c r="O47" s="19">
-        <v>0</v>
-      </c>
-      <c r="P47" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="18">
+      <c r="J48" s="19"/>
+      <c r="K48" s="18">
         <v>5</v>
       </c>
-      <c r="O48" s="19">
-        <v>1</v>
-      </c>
-      <c r="P48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="19">
+      <c r="L48" s="18">
+        <v>1</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="18">
+      <c r="J49" s="19"/>
+      <c r="K49" s="18">
         <v>5</v>
       </c>
-      <c r="O49" s="19">
-        <v>2</v>
-      </c>
-      <c r="P49" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="19">
+      <c r="L49" s="18">
+        <v>2</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="18">
+      <c r="J50" s="19"/>
+      <c r="K50" s="18">
         <v>5</v>
       </c>
-      <c r="O50" s="19">
-        <v>3</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R50" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="L50" s="18">
+        <v>3</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="18">
+      <c r="J51" s="19"/>
+      <c r="K51" s="18">
         <v>5</v>
       </c>
-      <c r="O51" s="19">
+      <c r="L51" s="18">
         <v>4</v>
       </c>
-      <c r="P51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R51" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="M51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="18">
+      <c r="J52" s="19"/>
+      <c r="K52" s="18">
         <v>5</v>
       </c>
-      <c r="O52" s="19">
+      <c r="L52" s="18">
         <v>5</v>
       </c>
-      <c r="P52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N53" s="18">
+      <c r="M52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="K53" s="18">
         <v>5</v>
       </c>
-      <c r="O53" s="19">
+      <c r="L53" s="18">
         <v>6</v>
       </c>
-      <c r="P53" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R53" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N54" s="18">
+      <c r="M53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K54" s="18">
         <v>5</v>
       </c>
-      <c r="O54" s="19">
+      <c r="L54" s="18">
         <v>7</v>
       </c>
-      <c r="P54" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N55" s="18">
+      <c r="M54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K55" s="18">
         <v>5</v>
       </c>
-      <c r="O55" s="19">
+      <c r="L55" s="18">
         <v>8</v>
       </c>
-      <c r="P55" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N56" s="18">
+      <c r="M55" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K56" s="18">
         <v>5</v>
       </c>
-      <c r="O56" s="19">
+      <c r="L56" s="18">
         <v>9</v>
       </c>
-      <c r="P56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R56" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N57" s="18">
+      <c r="M56" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K57" s="18">
         <v>5</v>
       </c>
-      <c r="O57" s="19">
-        <v>10</v>
-      </c>
-      <c r="P57" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N58" s="18">
+      <c r="L57" s="18">
+        <v>10</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K58" s="18">
         <v>6</v>
       </c>
-      <c r="O58" s="19">
-        <v>0</v>
-      </c>
-      <c r="P58" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N59" s="18">
+      <c r="L58" s="18">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K59" s="18">
         <v>6</v>
       </c>
-      <c r="O59" s="19">
-        <v>1</v>
-      </c>
-      <c r="P59" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="19">
+      <c r="L59" s="18">
+        <v>1</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N60" s="18">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="18">
         <v>6</v>
       </c>
-      <c r="O60" s="19">
-        <v>2</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q60" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N61" s="18">
+      <c r="L60" s="18">
+        <v>2</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K61" s="18">
         <v>6</v>
       </c>
-      <c r="O61" s="19">
-        <v>3</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R61" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N62" s="18">
+      <c r="L61" s="18">
+        <v>3</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K62" s="18">
         <v>6</v>
       </c>
-      <c r="O62" s="19">
+      <c r="L62" s="18">
         <v>4</v>
       </c>
-      <c r="P62" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N63" s="18">
+      <c r="M62" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K63" s="18">
         <v>6</v>
       </c>
-      <c r="O63" s="19">
+      <c r="L63" s="18">
         <v>5</v>
       </c>
-      <c r="P63" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R63" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N64" s="18">
+      <c r="M63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K64" s="18">
         <v>6</v>
       </c>
-      <c r="O64" s="19">
+      <c r="L64" s="18">
         <v>6</v>
       </c>
-      <c r="P64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R64" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N65" s="18">
+      <c r="M64" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K65" s="18">
         <v>6</v>
       </c>
-      <c r="O65" s="19">
+      <c r="L65" s="18">
         <v>7</v>
       </c>
-      <c r="P65" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R65" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N66" s="18">
+      <c r="M65" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K66" s="18">
         <v>6</v>
       </c>
-      <c r="O66" s="19">
+      <c r="L66" s="18">
         <v>8</v>
       </c>
-      <c r="P66" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N67" s="18">
+      <c r="M66" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K67" s="18">
         <v>6</v>
       </c>
-      <c r="O67" s="19">
+      <c r="L67" s="18">
         <v>9</v>
       </c>
-      <c r="P67" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q67" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R67" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N68" s="18">
+      <c r="M67" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O67" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K68" s="18">
         <v>6</v>
       </c>
-      <c r="O68" s="19">
-        <v>10</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R68" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N69" s="18">
+      <c r="L68" s="18">
+        <v>10</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O68" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K69" s="18">
         <v>7</v>
       </c>
-      <c r="O69" s="19">
-        <v>0</v>
-      </c>
-      <c r="P69" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q69" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R69" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N70" s="18">
+      <c r="L69" s="18">
+        <v>0</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O69" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K70" s="18">
         <v>7</v>
       </c>
-      <c r="O70" s="19">
-        <v>1</v>
-      </c>
-      <c r="P70" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R70" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N71" s="18">
+      <c r="L70" s="18">
+        <v>1</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K71" s="18">
         <v>7</v>
       </c>
-      <c r="O71" s="19">
-        <v>2</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q71" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R71" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N72" s="18">
+      <c r="L71" s="18">
+        <v>2</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K72" s="18">
         <v>7</v>
       </c>
-      <c r="O72" s="19">
-        <v>3</v>
-      </c>
-      <c r="P72" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N73" s="18">
+      <c r="L72" s="18">
+        <v>3</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K73" s="18">
         <v>7</v>
       </c>
-      <c r="O73" s="19">
+      <c r="L73" s="18">
         <v>4</v>
       </c>
-      <c r="P73" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q73" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R73" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N74" s="18">
+      <c r="M73" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K74" s="18">
         <v>7</v>
       </c>
-      <c r="O74" s="19">
+      <c r="L74" s="18">
         <v>5</v>
       </c>
-      <c r="P74" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R74" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N75" s="18">
+      <c r="M74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O74" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K75" s="18">
         <v>7</v>
       </c>
-      <c r="O75" s="19">
+      <c r="L75" s="18">
         <v>6</v>
       </c>
-      <c r="P75" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q75" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R75" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N76" s="18">
+      <c r="M75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K76" s="18">
         <v>7</v>
       </c>
-      <c r="O76" s="19">
+      <c r="L76" s="18">
         <v>7</v>
       </c>
-      <c r="P76" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N77" s="18">
+      <c r="M76" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K77" s="18">
         <v>7</v>
       </c>
-      <c r="O77" s="19">
+      <c r="L77" s="18">
         <v>8</v>
       </c>
-      <c r="P77" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q77" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R77" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N78" s="18">
+      <c r="M77" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O77" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K78" s="18">
         <v>7</v>
       </c>
-      <c r="O78" s="19">
+      <c r="L78" s="18">
         <v>9</v>
       </c>
-      <c r="P78" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q78" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R78" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N79" s="18">
+      <c r="M78" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O78" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K79" s="18">
         <v>7</v>
       </c>
-      <c r="O79" s="19">
-        <v>10</v>
-      </c>
-      <c r="P79" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R79" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N80" s="18">
+      <c r="L79" s="18">
+        <v>10</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O79" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K80" s="18">
         <v>8</v>
       </c>
-      <c r="O80" s="19">
-        <v>0</v>
-      </c>
-      <c r="P80" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N81" s="18">
+      <c r="L80" s="18">
+        <v>0</v>
+      </c>
+      <c r="M80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K81" s="18">
         <v>8</v>
       </c>
-      <c r="O81" s="19">
-        <v>1</v>
-      </c>
-      <c r="P81" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N82" s="18">
+      <c r="L81" s="18">
+        <v>1</v>
+      </c>
+      <c r="M81" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K82" s="18">
         <v>8</v>
       </c>
-      <c r="O82" s="19">
-        <v>2</v>
-      </c>
-      <c r="P82" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R82" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N83" s="18">
+      <c r="L82" s="18">
+        <v>2</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O82" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K83" s="18">
         <v>8</v>
       </c>
-      <c r="O83" s="19">
-        <v>3</v>
-      </c>
-      <c r="P83" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q83" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N84" s="18">
+      <c r="L83" s="18">
+        <v>3</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K84" s="18">
         <v>8</v>
       </c>
-      <c r="O84" s="19">
+      <c r="L84" s="18">
         <v>4</v>
       </c>
-      <c r="P84" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R84" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N85" s="18">
+      <c r="M84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O84" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K85" s="18">
         <v>8</v>
       </c>
-      <c r="O85" s="19">
+      <c r="L85" s="18">
         <v>5</v>
       </c>
-      <c r="P85" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q85" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R85" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N86" s="18">
+      <c r="M85" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K86" s="18">
         <v>8</v>
       </c>
-      <c r="O86" s="19">
+      <c r="L86" s="18">
         <v>6</v>
       </c>
-      <c r="P86" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R86" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N87" s="18">
+      <c r="M86" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O86" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K87" s="18">
         <v>8</v>
       </c>
-      <c r="O87" s="19">
+      <c r="L87" s="18">
         <v>7</v>
       </c>
-      <c r="P87" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R87" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N88" s="18">
+      <c r="M87" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O87" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K88" s="18">
         <v>8</v>
       </c>
-      <c r="O88" s="19">
+      <c r="L88" s="18">
         <v>8</v>
       </c>
-      <c r="P88" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q88" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R88" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N89" s="18">
+      <c r="M88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O88" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K89" s="18">
         <v>8</v>
       </c>
-      <c r="O89" s="19">
+      <c r="L89" s="18">
         <v>9</v>
       </c>
-      <c r="P89" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N90" s="18">
+      <c r="M89" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K90" s="18">
         <v>8</v>
       </c>
-      <c r="O90" s="19">
-        <v>10</v>
-      </c>
-      <c r="P90" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q90" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R90" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N91" s="18">
+      <c r="L90" s="18">
+        <v>10</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O90" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K91" s="18">
         <v>9</v>
       </c>
-      <c r="O91" s="19">
-        <v>0</v>
-      </c>
-      <c r="P91" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q91" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N92" s="18">
+      <c r="L91" s="18">
+        <v>0</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K92" s="18">
         <v>9</v>
       </c>
-      <c r="O92" s="19">
-        <v>1</v>
-      </c>
-      <c r="P92" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q92" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R92" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N93" s="18">
+      <c r="L92" s="18">
+        <v>1</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O92" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K93" s="18">
         <v>9</v>
       </c>
-      <c r="O93" s="19">
-        <v>2</v>
-      </c>
-      <c r="P93" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R93" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N94" s="18">
+      <c r="L93" s="18">
+        <v>2</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O93" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K94" s="18">
         <v>9</v>
       </c>
-      <c r="O94" s="19">
-        <v>3</v>
-      </c>
-      <c r="P94" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N95" s="18">
+      <c r="L94" s="18">
+        <v>3</v>
+      </c>
+      <c r="M94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K95" s="18">
         <v>9</v>
       </c>
-      <c r="O95" s="19">
+      <c r="L95" s="18">
         <v>4</v>
       </c>
-      <c r="P95" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q95" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R95" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N96" s="18">
+      <c r="M95" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O95" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K96" s="18">
         <v>9</v>
       </c>
-      <c r="O96" s="19">
+      <c r="L96" s="18">
         <v>5</v>
       </c>
-      <c r="P96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q96" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R96" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N97" s="18">
+      <c r="M96" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O96" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K97" s="18">
         <v>9</v>
       </c>
-      <c r="O97" s="19">
+      <c r="L97" s="18">
         <v>6</v>
       </c>
-      <c r="P97" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q97" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R97" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N98" s="18">
+      <c r="M97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O97" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K98" s="18">
         <v>9</v>
       </c>
-      <c r="O98" s="19">
+      <c r="L98" s="18">
         <v>7</v>
       </c>
-      <c r="P98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R98" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N99" s="18">
+      <c r="M98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O98" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K99" s="18">
         <v>9</v>
       </c>
-      <c r="O99" s="19">
+      <c r="L99" s="18">
         <v>8</v>
       </c>
-      <c r="P99" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q99" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R99" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N100" s="18">
+      <c r="M99" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N99" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O99" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K100" s="18">
         <v>9</v>
       </c>
-      <c r="O100" s="19">
+      <c r="L100" s="18">
         <v>9</v>
       </c>
-      <c r="P100" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N101" s="18">
+      <c r="M100" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K101" s="18">
         <v>9</v>
       </c>
-      <c r="O101" s="19">
-        <v>10</v>
-      </c>
-      <c r="P101" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N102" s="18">
-        <v>10</v>
-      </c>
-      <c r="O102" s="19">
-        <v>0</v>
-      </c>
-      <c r="P102" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q102" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N103" s="18">
-        <v>10</v>
-      </c>
-      <c r="O103" s="19">
-        <v>1</v>
-      </c>
-      <c r="P103" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q103" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R103" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N104" s="18">
-        <v>10</v>
-      </c>
-      <c r="O104" s="19">
-        <v>2</v>
-      </c>
-      <c r="P104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q104" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R104" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N105" s="18">
-        <v>10</v>
-      </c>
-      <c r="O105" s="19">
-        <v>3</v>
-      </c>
-      <c r="P105" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q105" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R105" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N106" s="18">
-        <v>10</v>
-      </c>
-      <c r="O106" s="19">
+      <c r="L101" s="18">
+        <v>10</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K102" s="18">
+        <v>10</v>
+      </c>
+      <c r="L102" s="18">
+        <v>0</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K103" s="18">
+        <v>10</v>
+      </c>
+      <c r="L103" s="18">
+        <v>1</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O103" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K104" s="18">
+        <v>10</v>
+      </c>
+      <c r="L104" s="18">
+        <v>2</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N104" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O104" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K105" s="18">
+        <v>10</v>
+      </c>
+      <c r="L105" s="18">
+        <v>3</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O105" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K106" s="18">
+        <v>10</v>
+      </c>
+      <c r="L106" s="18">
         <v>4</v>
       </c>
-      <c r="P106" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q106" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R106" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N107" s="18">
-        <v>10</v>
-      </c>
-      <c r="O107" s="19">
+      <c r="M106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O106" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K107" s="18">
+        <v>10</v>
+      </c>
+      <c r="L107" s="18">
         <v>5</v>
       </c>
-      <c r="P107" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q107" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R107" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N108" s="18">
-        <v>10</v>
-      </c>
-      <c r="O108" s="19">
+      <c r="M107" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O107" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K108" s="18">
+        <v>10</v>
+      </c>
+      <c r="L108" s="18">
         <v>6</v>
       </c>
-      <c r="P108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q108" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R108" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N109" s="18">
-        <v>10</v>
-      </c>
-      <c r="O109" s="19">
+      <c r="M108" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K109" s="18">
+        <v>10</v>
+      </c>
+      <c r="L109" s="18">
         <v>7</v>
       </c>
-      <c r="P109" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q109" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R109" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N110" s="18">
-        <v>10</v>
-      </c>
-      <c r="O110" s="19">
+      <c r="M109" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N109" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O109" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K110" s="18">
+        <v>10</v>
+      </c>
+      <c r="L110" s="18">
         <v>8</v>
       </c>
-      <c r="P110" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R110" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N111" s="18">
-        <v>10</v>
-      </c>
-      <c r="O111" s="19">
+      <c r="M110" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O110" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K111" s="18">
+        <v>10</v>
+      </c>
+      <c r="L111" s="18">
         <v>9</v>
       </c>
-      <c r="P111" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q111" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R111" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N112" s="18">
-        <v>10</v>
-      </c>
-      <c r="O112" s="19">
-        <v>10</v>
-      </c>
-      <c r="P112" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q112" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R112" s="19">
+      <c r="M111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K112" s="18">
+        <v>10</v>
+      </c>
+      <c r="L112" s="18">
+        <v>10</v>
+      </c>
+      <c r="M112" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O112" s="18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:R1"/>
+  <mergeCells count="5">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5094,88 +4845,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5196,7 +4947,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C2)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A2)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>1</v>
       </c>
@@ -5208,7 +4959,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F2)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D2)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>1</v>
       </c>
@@ -5224,7 +4975,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D2)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L3" s="17" t="str">
+      <c r="L3" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E2)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5273,7 +5024,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C3)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A3)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
       </c>
@@ -5285,7 +5036,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F3)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D3)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
       </c>
@@ -5301,7 +5052,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D3)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L4" s="17" t="str">
+      <c r="L4" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E3)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5345,7 +5096,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C4)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A4)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
       </c>
@@ -5357,7 +5108,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F4)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D4)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
       </c>
@@ -5373,7 +5124,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D4)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L5" s="17" t="str">
+      <c r="L5" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E4)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5417,7 +5168,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C5)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A5)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
       </c>
@@ -5429,7 +5180,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F5)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D5)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
       </c>
@@ -5445,7 +5196,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D5)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E5)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5489,7 +5240,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C6)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A6)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
       </c>
@@ -5501,7 +5252,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F6)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D6)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
       </c>
@@ -5517,7 +5268,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D6)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E6)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5561,7 +5312,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C7)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A7)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>6</v>
       </c>
@@ -5573,7 +5324,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F7)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D7)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>6</v>
       </c>
@@ -5589,7 +5340,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D7)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E7)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5633,7 +5384,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C8)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A8)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>7</v>
       </c>
@@ -5645,7 +5396,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F8)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D8)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>7</v>
       </c>
@@ -5661,7 +5412,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D8)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E8)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5705,7 +5456,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C9)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A9)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>8</v>
       </c>
@@ -5717,7 +5468,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F9)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D9)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>8</v>
       </c>
@@ -5733,7 +5484,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D9)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E9)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5777,7 +5528,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C10)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A10)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>9</v>
       </c>
@@ -5789,7 +5540,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F10)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D10)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>9</v>
       </c>
@@ -5805,7 +5556,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D10)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E10)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5849,7 +5600,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C11)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A11)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>10</v>
       </c>
@@ -5861,7 +5612,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F11)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D11)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>10</v>
       </c>
@@ -5877,7 +5628,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D11)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E11)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5921,7 +5672,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C12)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A12)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>1</v>
       </c>
@@ -5933,7 +5684,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F12)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D12)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>1</v>
       </c>
@@ -5949,7 +5700,7 @@
         <f>INDEX('Indices Data'!$D$2:$D$100, MOD(ROUNDDOWN((ROW('Indices Data'!D12)-2)/(COUNTA('Indices Data'!$E$2:$E$100)),0),COUNTA('Indices Data'!$D$2:$D$100))+1)</f>
         <v>Complexity 1</v>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="15" t="str">
         <f>INDEX('Indices Data'!$E$2:$E$100,MOD(ROUNDDOWN((ROW('Indices Data'!E12)-2)/1,0),COUNTA('Indices Data'!$E$2:$E$100))+1)</f>
         <v>CPU 1</v>
       </c>
@@ -5993,7 +5744,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C13)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A13)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
       </c>
@@ -6005,7 +5756,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F13)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D13)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
       </c>
@@ -6013,7 +5764,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="15"/>
       <c r="N14">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A13)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6051,7 +5802,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C14)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A14)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
       </c>
@@ -6063,7 +5814,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F14)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D14)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
       </c>
@@ -6071,7 +5822,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="15"/>
       <c r="N15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A14)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6109,7 +5860,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C15)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A15)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
       </c>
@@ -6121,7 +5872,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F15)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D15)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
       </c>
@@ -6129,7 +5880,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="15"/>
       <c r="N16">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A15)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6167,7 +5918,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C16)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A16)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
       </c>
@@ -6179,7 +5930,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F16)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D16)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
       </c>
@@ -6187,7 +5938,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="15"/>
       <c r="N17">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A16)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6225,7 +5976,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C17)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A17)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>6</v>
       </c>
@@ -6237,7 +5988,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F17)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D17)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>6</v>
       </c>
@@ -6245,7 +5996,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="15"/>
       <c r="N18">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A17)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6283,7 +6034,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C18)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A18)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>7</v>
       </c>
@@ -6295,7 +6046,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F18)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D18)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>7</v>
       </c>
@@ -6303,7 +6054,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="15"/>
       <c r="N19">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A18)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6341,7 +6092,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C19)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A19)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>8</v>
       </c>
@@ -6353,7 +6104,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F19)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D19)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>8</v>
       </c>
@@ -6361,7 +6112,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="15"/>
       <c r="N20">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A19)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6399,7 +6150,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C20)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A20)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>9</v>
       </c>
@@ -6411,7 +6162,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F20)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D20)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>9</v>
       </c>
@@ -6419,7 +6170,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="15"/>
       <c r="N21">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A20)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6457,7 +6208,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!C21)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A21)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>10</v>
       </c>
@@ -6469,7 +6220,7 @@
         <f>INDEX('Indices Data'!$C$2:$C$100, MOD(ROUNDDOWN((ROW('Indices Data'!F21)-2)/(COUNTA('Indices Data'!$A$2:$A$100)),0),COUNTA('Indices Data'!$C$2:$C$100))+1)</f>
         <v>PPE 1</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!D21)-2)/1,0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>10</v>
       </c>
@@ -6477,7 +6228,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="15"/>
       <c r="N22">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A21)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6499,9 +6250,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="N23">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A22)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6523,9 +6274,9 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="E24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="N24">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A23)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>2</v>
@@ -6547,9 +6298,9 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="L25" s="15"/>
       <c r="N25">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A24)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6571,9 +6322,9 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="E26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="N26">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A25)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6595,9 +6346,9 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="E27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="N27">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A26)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6619,9 +6370,9 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="E28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="N28">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A27)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6643,9 +6394,9 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="E29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="N29">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A28)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6667,9 +6418,9 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="E30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="L30" s="15"/>
       <c r="N30">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A29)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6691,9 +6442,9 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="N31">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A30)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6715,9 +6466,9 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="E32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="N32">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A31)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6739,9 +6490,9 @@
       </c>
     </row>
     <row r="33" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="E33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="L33" s="15"/>
       <c r="N33">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A32)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6763,9 +6514,9 @@
       </c>
     </row>
     <row r="34" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="E34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="L34" s="15"/>
       <c r="N34">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A33)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6787,9 +6538,9 @@
       </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="E35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="L35" s="15"/>
       <c r="N35">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A34)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>3</v>
@@ -6811,9 +6562,9 @@
       </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="E36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="L36" s="15"/>
       <c r="N36">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A35)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6835,9 +6586,9 @@
       </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="E37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="L37" s="15"/>
       <c r="N37">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A36)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6859,9 +6610,9 @@
       </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="E38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="L38" s="15"/>
       <c r="N38">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A37)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6883,9 +6634,9 @@
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="E39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="L39" s="15"/>
       <c r="N39">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A38)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6907,9 +6658,9 @@
       </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="E40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="L40" s="15"/>
       <c r="N40">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A39)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6931,9 +6682,9 @@
       </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="E41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="L41" s="15"/>
       <c r="N41">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A40)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6955,9 +6706,9 @@
       </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="L42" s="15"/>
       <c r="N42">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A41)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -6979,9 +6730,9 @@
       </c>
     </row>
     <row r="43" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="L43" s="15"/>
       <c r="N43">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A42)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -7003,9 +6754,9 @@
       </c>
     </row>
     <row r="44" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="L44" s="15"/>
       <c r="N44">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A43)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -7027,9 +6778,9 @@
       </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="L45" s="15"/>
       <c r="N45">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A44)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -7051,9 +6802,9 @@
       </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="N46">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A45)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>4</v>
@@ -7075,9 +6826,9 @@
       </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="E47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="L47" s="15"/>
       <c r="N47">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A46)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
@@ -7099,9 +6850,9 @@
       </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="L48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="L48" s="15"/>
       <c r="N48">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A47)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
@@ -7123,9 +6874,9 @@
       </c>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="L49" s="17"/>
+      <c r="E49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="L49" s="15"/>
       <c r="N49">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A48)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
@@ -7147,9 +6898,9 @@
       </c>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="E50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="L50" s="15"/>
       <c r="N50">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A49)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
@@ -7171,9 +6922,9 @@
       </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="E51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="L51" s="15"/>
       <c r="N51">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A50)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>
@@ -7195,9 +6946,9 @@
       </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="L52" s="17"/>
+      <c r="E52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="L52" s="15"/>
       <c r="N52">
         <f>INDEX('Indices Data'!$A$2:$A$100,MOD(ROUNDDOWN((ROW('Indices Data'!A51)-2)/(COUNTA('Indices Data'!$B$2:$B$100)*COUNTA('Indices Data'!$E$2:$E$100)*COUNTA('Indices Data'!$D$2:$D$100)),0),COUNTA('Indices Data'!$A$2:$A$100))+1)</f>
         <v>5</v>

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Expected State Values" sheetId="7" r:id="rId7"/>
     <sheet name="Generate Expected State Values" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="40">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -65,9 +65,6 @@
   <si>
     <t>Deviation (uniform)
 min/max (both inclusive)</t>
-  </si>
-  <si>
-    <t>-10,10</t>
   </si>
   <si>
     <t>CPU</t>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>UV</t>
+  </si>
+  <si>
+    <t>-0,0</t>
+  </si>
+  <si>
+    <t>MAYBE THERE ARE BUGS/MODEL ISSUES WITH ^ VALUE</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -449,37 +452,37 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.21</c:v>
+                  <c:v>1.2100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.331</c:v>
+                  <c:v>1.3310000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4641</c:v>
+                  <c:v>1.4641000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.610510000000001</c:v>
+                  <c:v>1.6105100000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7715610000000011</c:v>
+                  <c:v>1.7715610000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.948717100000001</c:v>
+                  <c:v>1.9487171000000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.1435888100000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.357947691000001</c:v>
+                  <c:v>2.3579476910000015</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.5937424601000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.853116706110002</c:v>
+                  <c:v>2.8531167061100025</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1384283767210031</c:v>
+                  <c:v>3.1384283767210026</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.4522712143931029</c:v>
@@ -500,11 +503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207878912"/>
-        <c:axId val="207879488"/>
+        <c:axId val="100670784"/>
+        <c:axId val="218406912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207878912"/>
+        <c:axId val="100670784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,12 +517,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207879488"/>
+        <c:crossAx val="218406912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207879488"/>
+        <c:axId val="218406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -531,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207878912"/>
+        <c:crossAx val="100670784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1036,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,14 +1076,16 @@
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -1116,16 +1121,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1271,13 +1276,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>14.95</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1363,19 +1368,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,7 +1925,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,19 +1939,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="22"/>
     </row>
@@ -1955,18 +1963,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>0.99</v>
+      <c r="E2">
+        <v>0.95</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <f t="shared" ref="H2:H16" si="0">$A$2^G2</f>
         <v>1</v>
       </c>
     </row>
@@ -1975,29 +1987,26 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>1.21</v>
+        <f t="shared" si="0"/>
+        <v>1.2100000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1.331</v>
+        <f t="shared" si="0"/>
+        <v>1.3310000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2005,7 +2014,8 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>1.4641</v>
+        <f t="shared" si="0"/>
+        <v>1.4641000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,7 +2023,8 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>1.610510000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.6105100000000006</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2021,7 +2032,8 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>1.7715610000000011</v>
+        <f t="shared" si="0"/>
+        <v>1.7715610000000008</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,7 +2041,8 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>1.948717100000001</v>
+        <f t="shared" si="0"/>
+        <v>1.9487171000000012</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,6 +2050,7 @@
         <v>8</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
         <v>2.1435888100000011</v>
       </c>
     </row>
@@ -2045,7 +2059,8 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>2.357947691000001</v>
+        <f t="shared" si="0"/>
+        <v>2.3579476910000015</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,6 +2068,7 @@
         <v>10</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
         <v>2.5937424601000019</v>
       </c>
     </row>
@@ -2061,7 +2077,8 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>2.853116706110002</v>
+        <f t="shared" si="0"/>
+        <v>2.8531167061100025</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,7 +2086,8 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>3.1384283767210031</v>
+        <f t="shared" si="0"/>
+        <v>3.1384283767210026</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,6 +2095,7 @@
         <v>13</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
         <v>3.4522712143931029</v>
       </c>
     </row>
@@ -2085,6 +2104,7 @@
         <v>14</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
         <v>3.7974983358324139</v>
       </c>
     </row>
@@ -2103,7 +2123,7 @@
   <dimension ref="A1:Q442"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,23 +2147,23 @@
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="20"/>
       <c r="K1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
@@ -2152,49 +2172,49 @@
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2205,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <v>31.132000000000001</v>
+        <v>30</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>6</v>
@@ -2214,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="15">
-        <v>27.887</v>
+        <v>30</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
@@ -2226,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="13">
-        <v>30.071000000000002</v>
+        <v>15</v>
       </c>
       <c r="K3" s="15">
         <v>1</v>
@@ -2241,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="O3" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2261,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15">
-        <v>24.838000000000001</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -2273,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="13">
-        <v>4.92</v>
+        <v>15</v>
       </c>
       <c r="K4" s="15">
         <v>1</v>
@@ -2288,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="15">
-        <v>2.1800000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2308,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="15">
-        <v>22.725000000000001</v>
+        <v>30</v>
       </c>
       <c r="G5" s="13">
         <v>2</v>
@@ -2320,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="13">
-        <v>4.383</v>
+        <v>15</v>
       </c>
       <c r="K5" s="15">
         <v>1</v>
@@ -2335,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="15">
-        <v>0.93799999999999994</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2355,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="15">
-        <v>20.539000000000001</v>
+        <v>30</v>
       </c>
       <c r="G6" s="13">
         <v>3</v>
@@ -2367,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="13">
-        <v>3.8239999999999998</v>
+        <v>15</v>
       </c>
       <c r="K6" s="15">
         <v>1</v>
@@ -2382,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="15">
-        <v>1.056</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2402,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="15">
-        <v>17.748999999999999</v>
+        <v>30</v>
       </c>
       <c r="G7" s="13">
         <v>4</v>
@@ -2414,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="13">
-        <v>3.367</v>
+        <v>15</v>
       </c>
       <c r="K7" s="15">
         <v>1</v>
@@ -2429,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="O7" s="15">
-        <v>1.3460000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2449,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="15">
-        <v>15.79</v>
+        <v>30</v>
       </c>
       <c r="G8" s="13">
         <v>5</v>
@@ -2461,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="13">
-        <v>2.9470000000000001</v>
+        <v>15</v>
       </c>
       <c r="K8" s="15">
         <v>1</v>
@@ -2476,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="O8" s="15">
-        <v>0.90200000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2496,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="15">
-        <v>14.273</v>
+        <v>30</v>
       </c>
       <c r="G9" s="13">
         <v>6</v>
@@ -2508,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="13">
-        <v>2.101</v>
+        <v>15</v>
       </c>
       <c r="K9" s="15">
         <v>1</v>
@@ -2523,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="15">
-        <v>0.68899999999999995</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2543,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="15">
-        <v>13.303000000000001</v>
+        <v>30</v>
       </c>
       <c r="G10" s="13">
         <v>7</v>
@@ -2555,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="13">
-        <v>1.3220000000000001</v>
+        <v>15</v>
       </c>
       <c r="K10" s="15">
         <v>1</v>
@@ -2570,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="15">
-        <v>0.499</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2590,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="15">
-        <v>11.714</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13">
         <v>8</v>
@@ -2602,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="13">
-        <v>0.80700000000000005</v>
+        <v>15</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -2617,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="15">
-        <v>0.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13">
         <v>9</v>
@@ -2649,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13">
-        <v>0.29499999999999998</v>
+        <v>15</v>
       </c>
       <c r="K12" s="15">
         <v>1</v>
@@ -2664,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="O12" s="15">
-        <v>0.64700000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2684,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="13">
-        <v>0.82899999999999996</v>
+        <v>15</v>
       </c>
       <c r="K13" s="15">
         <v>1</v>
@@ -2699,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="O13" s="15">
-        <v>4.9370000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2726,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="O14" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2753,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="O15" s="15">
-        <v>1.0269999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2780,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="15">
-        <v>1.1040000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2807,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="O17" s="15">
-        <v>1.39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2834,7 +2854,7 @@
         <v>8</v>
       </c>
       <c r="O18" s="15">
-        <v>0.96799999999999997</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2861,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="O19" s="15">
-        <v>0.72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2888,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="O20" s="15">
-        <v>0.45500000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2915,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="O21" s="15">
-        <v>0.75600000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2942,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="O22" s="15">
-        <v>0.67500000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2963,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="O23" s="15">
-        <v>0.54300000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2984,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="O24" s="15">
-        <v>4.782</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3005,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="O25" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3026,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="O26" s="15">
-        <v>1.0760000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3047,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="O27" s="15">
-        <v>1.3779999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3068,7 +3088,7 @@
         <v>8</v>
       </c>
       <c r="O28" s="15">
-        <v>0.96899999999999997</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3089,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="O29" s="15">
-        <v>0.72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3110,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="O30" s="15">
-        <v>0.45400000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3131,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="O31" s="15">
-        <v>0.75700000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3152,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="O32" s="15">
-        <v>0.67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
@@ -3173,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="O33" s="15">
-        <v>0.54400000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
@@ -3194,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="O34" s="15">
-        <v>0.55500000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
@@ -3215,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="O35" s="15">
-        <v>4.2389999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
@@ -3236,7 +3256,7 @@
         <v>8</v>
       </c>
       <c r="O36" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
@@ -3257,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="O37" s="15">
-        <v>1.3660000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
@@ -3278,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="O38" s="15">
-        <v>0.96199999999999997</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
@@ -3299,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="O39" s="15">
-        <v>0.71299999999999997</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
@@ -3320,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="O40" s="15">
-        <v>0.45400000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
@@ -3341,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="O41" s="15">
-        <v>0.75600000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.25">
@@ -3362,7 +3382,7 @@
         <v>8</v>
       </c>
       <c r="O42" s="15">
-        <v>0.66500000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="7:15" x14ac:dyDescent="0.25">
@@ -3383,7 +3403,7 @@
         <v>8</v>
       </c>
       <c r="O43" s="15">
-        <v>0.54400000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.25">
@@ -3404,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="O44" s="15">
-        <v>0.55800000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="7:15" x14ac:dyDescent="0.25">
@@ -3425,7 +3445,7 @@
         <v>8</v>
       </c>
       <c r="O45" s="15">
-        <v>0.45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="7:15" x14ac:dyDescent="0.25">
@@ -3446,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="O46" s="15">
-        <v>3.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="7:15" x14ac:dyDescent="0.25">
@@ -3463,7 +3483,7 @@
         <v>8</v>
       </c>
       <c r="O47" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="7:15" x14ac:dyDescent="0.25">
@@ -3480,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="O48" s="15">
-        <v>0.95799999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.25">
@@ -3497,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="O49" s="15">
-        <v>0.70799999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.25">
@@ -3514,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="O50" s="15">
-        <v>0.439</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.25">
@@ -3531,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="O51" s="15">
-        <v>0.746</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.25">
@@ -3548,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="O52" s="15">
-        <v>0.65700000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.25">
@@ -3565,7 +3585,7 @@
         <v>8</v>
       </c>
       <c r="O53" s="15">
-        <v>0.54600000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="11:15" x14ac:dyDescent="0.25">
@@ -3582,7 +3602,7 @@
         <v>8</v>
       </c>
       <c r="O54" s="15">
-        <v>0.55900000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.25">
@@ -3599,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="O55" s="15">
-        <v>0.45500000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.25">
@@ -3616,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="O56" s="15">
-        <v>0.48499999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="11:15" x14ac:dyDescent="0.25">
@@ -3633,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="O57" s="15">
-        <v>3.3220000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.25">
@@ -3650,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="O58" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.25">
@@ -3667,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="O59" s="15">
-        <v>0.70499999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="11:15" x14ac:dyDescent="0.25">
@@ -3684,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="O60" s="15">
-        <v>0.433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.25">
@@ -3701,7 +3721,7 @@
         <v>8</v>
       </c>
       <c r="O61" s="15">
-        <v>0.74099999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.25">
@@ -3718,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="O62" s="15">
-        <v>0.64600000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.25">
@@ -3735,7 +3755,7 @@
         <v>8</v>
       </c>
       <c r="O63" s="15">
-        <v>0.54200000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.25">
@@ -3752,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="O64" s="15">
-        <v>0.55800000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="11:15" x14ac:dyDescent="0.25">
@@ -3769,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="O65" s="15">
-        <v>0.46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="11:15" x14ac:dyDescent="0.25">
@@ -3786,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="O66" s="15">
-        <v>0.48299999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="11:15" x14ac:dyDescent="0.25">
@@ -3803,7 +3823,7 @@
         <v>8</v>
       </c>
       <c r="O67" s="15">
-        <v>0.82699999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="11:15" x14ac:dyDescent="0.25">
@@ -3820,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="15">
-        <v>2.4990000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="11:15" x14ac:dyDescent="0.25">
@@ -3837,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="O69" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="11:15" x14ac:dyDescent="0.25">
@@ -3854,7 +3874,7 @@
         <v>8</v>
       </c>
       <c r="O70" s="15">
-        <v>0.43099999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="11:15" x14ac:dyDescent="0.25">
@@ -3871,7 +3891,7 @@
         <v>8</v>
       </c>
       <c r="O71" s="15">
-        <v>0.73699999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="11:15" x14ac:dyDescent="0.25">
@@ -3888,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="O72" s="15">
-        <v>0.63200000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="11:15" x14ac:dyDescent="0.25">
@@ -3905,7 +3925,7 @@
         <v>8</v>
       </c>
       <c r="O73" s="15">
-        <v>0.53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="11:15" x14ac:dyDescent="0.25">
@@ -3922,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="O74" s="15">
-        <v>0.54400000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="11:15" x14ac:dyDescent="0.25">
@@ -3939,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="O75" s="15">
-        <v>0.45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="11:15" x14ac:dyDescent="0.25">
@@ -3956,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="O76" s="15">
-        <v>0.47899999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="11:15" x14ac:dyDescent="0.25">
@@ -3973,7 +3993,7 @@
         <v>8</v>
       </c>
       <c r="O77" s="15">
-        <v>0.82899999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="11:15" x14ac:dyDescent="0.25">
@@ -3990,7 +4010,7 @@
         <v>8</v>
       </c>
       <c r="O78" s="15">
-        <v>0.73399999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="11:15" x14ac:dyDescent="0.25">
@@ -4007,7 +4027,7 @@
         <v>8</v>
       </c>
       <c r="O79" s="15">
-        <v>1.7709999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="11:15" x14ac:dyDescent="0.25">
@@ -4024,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="O80" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="11:15" x14ac:dyDescent="0.25">
@@ -4041,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="O81" s="15">
-        <v>0.73299999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="11:15" x14ac:dyDescent="0.25">
@@ -4058,7 +4078,7 @@
         <v>8</v>
       </c>
       <c r="O82" s="15">
-        <v>0.62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="11:15" x14ac:dyDescent="0.25">
@@ -4075,7 +4095,7 @@
         <v>8</v>
       </c>
       <c r="O83" s="15">
-        <v>0.52100000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="11:15" x14ac:dyDescent="0.25">
@@ -4092,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="O84" s="15">
-        <v>0.53100000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="11:15" x14ac:dyDescent="0.25">
@@ -4109,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="O85" s="15">
-        <v>0.44400000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="11:15" x14ac:dyDescent="0.25">
@@ -4126,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="O86" s="15">
-        <v>0.46600000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="11:15" x14ac:dyDescent="0.25">
@@ -4143,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="O87" s="15">
-        <v>0.82899999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="11:15" x14ac:dyDescent="0.25">
@@ -4160,7 +4180,7 @@
         <v>8</v>
       </c>
       <c r="O88" s="15">
-        <v>0.73599999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="11:15" x14ac:dyDescent="0.25">
@@ -4177,7 +4197,7 @@
         <v>8</v>
       </c>
       <c r="O89" s="15">
-        <v>0.496</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="11:15" x14ac:dyDescent="0.25">
@@ -4194,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="O90" s="15">
-        <v>1.2749999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="11:15" x14ac:dyDescent="0.25">
@@ -4211,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="O91" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="11:15" x14ac:dyDescent="0.25">
@@ -4228,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="O92" s="15">
-        <v>0.59899999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="11:15" x14ac:dyDescent="0.25">
@@ -4245,7 +4265,7 @@
         <v>8</v>
       </c>
       <c r="O93" s="15">
-        <v>0.51800000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="11:15" x14ac:dyDescent="0.25">
@@ -4262,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="O94" s="15">
-        <v>0.53600000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="11:15" x14ac:dyDescent="0.25">
@@ -4279,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="O95" s="15">
-        <v>0.434</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="11:15" x14ac:dyDescent="0.25">
@@ -4296,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="O96" s="15">
-        <v>0.45300000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="11:15" x14ac:dyDescent="0.25">
@@ -4313,7 +4333,7 @@
         <v>8</v>
       </c>
       <c r="O97" s="15">
-        <v>0.82299999999999995</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="11:15" x14ac:dyDescent="0.25">
@@ -4330,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="O98" s="15">
-        <v>0.73099999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="11:15" x14ac:dyDescent="0.25">
@@ -4347,7 +4367,7 @@
         <v>8</v>
       </c>
       <c r="O99" s="15">
-        <v>0.49199999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="11:15" x14ac:dyDescent="0.25">
@@ -4364,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="O100" s="15">
-        <v>0.54900000000000004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="11:15" x14ac:dyDescent="0.25">
@@ -4381,7 +4401,7 @@
         <v>8</v>
       </c>
       <c r="O101" s="15">
-        <v>0.72199999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="11:15" x14ac:dyDescent="0.25">
@@ -4398,7 +4418,7 @@
         <v>8</v>
       </c>
       <c r="O102" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="11:15" x14ac:dyDescent="0.25">
@@ -4415,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="O103" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="11:15" x14ac:dyDescent="0.25">
@@ -4432,7 +4452,7 @@
         <v>8</v>
       </c>
       <c r="O104" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="11:15" x14ac:dyDescent="0.25">
@@ -4449,7 +4469,7 @@
         <v>8</v>
       </c>
       <c r="O105" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="11:15" x14ac:dyDescent="0.25">
@@ -4466,7 +4486,7 @@
         <v>8</v>
       </c>
       <c r="O106" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="11:15" x14ac:dyDescent="0.25">
@@ -4483,7 +4503,7 @@
         <v>8</v>
       </c>
       <c r="O107" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="11:15" x14ac:dyDescent="0.25">
@@ -4500,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="O108" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="11:15" x14ac:dyDescent="0.25">
@@ -4517,7 +4537,7 @@
         <v>8</v>
       </c>
       <c r="O109" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="11:15" x14ac:dyDescent="0.25">
@@ -4534,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="O110" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="11:15" x14ac:dyDescent="0.25">
@@ -4551,7 +4571,7 @@
         <v>8</v>
       </c>
       <c r="O111" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="11:15" x14ac:dyDescent="0.25">
@@ -4568,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="O112" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="11:15" x14ac:dyDescent="0.25">
@@ -6898,7 +6918,7 @@
   <dimension ref="A1:R442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,28 +6944,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
@@ -6954,58 +6974,58 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="O2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/Implementation/Data/Data.xlsx
+++ b/Implementation/Data/Data.xlsx
@@ -503,11 +503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100670784"/>
-        <c:axId val="218406912"/>
+        <c:axId val="86105408"/>
+        <c:axId val="173121536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100670784"/>
+        <c:axId val="86105408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,12 +517,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218406912"/>
+        <c:crossAx val="173121536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218406912"/>
+        <c:axId val="173121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100670784"/>
+        <c:crossAx val="86105408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
